--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84B3394-17D3-453F-B1E8-7BF388933EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0055BB9-81BF-4DC0-8944-6D6C4FAAAA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>PROJECT START DATE</t>
   </si>
@@ -172,6 +172,9 @@
   </si>
   <si>
     <t>Message Comparing Functions</t>
+  </si>
+  <si>
+    <t>Not within POC scope</t>
   </si>
 </sst>
 </file>
@@ -584,7 +587,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="27">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -723,8 +726,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="20">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -938,15 +947,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.14999847407452621"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color theme="0" tint="-0.34998626667073579"/>
       </left>
@@ -1024,7 +1024,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="92">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1111,9 +1111,6 @@
     <xf numFmtId="15" fontId="46" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="166" fontId="47" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1160,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="46" fillId="23" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="46" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1212,6 +1209,70 @@
     <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="40" fillId="21" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="15" fontId="38" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
+    <xf numFmtId="15" fontId="38" fillId="21" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="41" fillId="23" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="20" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="50" fillId="21" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="44" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="53" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
@@ -1220,78 +1281,20 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="44" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="165" fontId="44" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="21" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="21" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="15" fontId="38" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="0" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1"/>
-    <xf numFmtId="15" fontId="38" fillId="21" borderId="11" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="41" fillId="23" borderId="0" xfId="51" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" xfId="51" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="44" fillId="20" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="21" borderId="12" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="50" fillId="21" borderId="11" xfId="53" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="20" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -2074,8 +2077,8 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="CP8" sqref="CP8"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2083,7 +2086,7 @@
     <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
     <col min="2" max="2" width="3" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" style="55" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" style="54" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="12" style="1" customWidth="1"/>
@@ -2099,7 +2102,7 @@
     <row r="2" spans="2:90" ht="17.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="56"/>
+      <c r="D2" s="55"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -2189,26 +2192,26 @@
     </row>
     <row r="3" spans="2:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="65" t="s">
+      <c r="C3" s="86" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
+      <c r="D3" s="86"/>
+      <c r="E3" s="86"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="3"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="45" t="s">
+      <c r="K3" s="43"/>
+      <c r="L3" s="44" t="s">
         <v>7</v>
       </c>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
-      <c r="O3" s="32"/>
+      <c r="O3" s="31"/>
       <c r="P3" s="4"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="45" t="s">
+      <c r="Q3" s="45"/>
+      <c r="R3" s="44" t="s">
         <v>5</v>
       </c>
       <c r="S3" s="4"/>
@@ -2225,82 +2228,84 @@
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="43"/>
-      <c r="BN3" s="43"/>
-      <c r="BO3" s="43"/>
-      <c r="BP3" s="43"/>
-      <c r="BQ3" s="43"/>
-      <c r="BR3" s="43"/>
-      <c r="BS3" s="43"/>
-      <c r="BT3" s="43"/>
-      <c r="BU3" s="43"/>
-      <c r="BV3" s="43"/>
-      <c r="BW3" s="43"/>
-      <c r="BX3" s="43"/>
-      <c r="BY3" s="43"/>
-      <c r="BZ3" s="43"/>
-      <c r="CA3" s="43"/>
-      <c r="CB3" s="43"/>
-      <c r="CC3" s="89"/>
-      <c r="CD3" s="89"/>
-      <c r="CE3" s="89"/>
-      <c r="CF3" s="89"/>
-      <c r="CG3" s="89"/>
-      <c r="CH3" s="89"/>
-      <c r="CI3" s="89"/>
-      <c r="CJ3" s="89"/>
-      <c r="CK3" s="89"/>
-      <c r="CL3" s="89"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="61"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="42"/>
+      <c r="AO3" s="42"/>
+      <c r="AP3" s="42"/>
+      <c r="AQ3" s="42"/>
+      <c r="AR3" s="42"/>
+      <c r="AS3" s="42"/>
+      <c r="AT3" s="42"/>
+      <c r="AU3" s="42"/>
+      <c r="AV3" s="42"/>
+      <c r="AW3" s="42"/>
+      <c r="AX3" s="42"/>
+      <c r="AY3" s="42"/>
+      <c r="AZ3" s="42"/>
+      <c r="BA3" s="42"/>
+      <c r="BB3" s="42"/>
+      <c r="BC3" s="42"/>
+      <c r="BD3" s="42"/>
+      <c r="BE3" s="42"/>
+      <c r="BF3" s="42"/>
+      <c r="BG3" s="42"/>
+      <c r="BH3" s="42"/>
+      <c r="BI3" s="42"/>
+      <c r="BJ3" s="42"/>
+      <c r="BK3" s="42"/>
+      <c r="BL3" s="42"/>
+      <c r="BM3" s="42"/>
+      <c r="BN3" s="42"/>
+      <c r="BO3" s="42"/>
+      <c r="BP3" s="42"/>
+      <c r="BQ3" s="42"/>
+      <c r="BR3" s="42"/>
+      <c r="BS3" s="42"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="42"/>
+      <c r="BV3" s="42"/>
+      <c r="BW3" s="42"/>
+      <c r="BX3" s="42"/>
+      <c r="BY3" s="42"/>
+      <c r="BZ3" s="42"/>
+      <c r="CA3" s="42"/>
+      <c r="CB3" s="42"/>
+      <c r="CC3" s="42"/>
+      <c r="CD3" s="42"/>
+      <c r="CE3" s="42"/>
+      <c r="CF3" s="42"/>
+      <c r="CG3" s="42"/>
+      <c r="CH3" s="42"/>
+      <c r="CI3" s="42"/>
+      <c r="CJ3" s="42"/>
+      <c r="CK3" s="42"/>
+      <c r="CL3" s="42"/>
     </row>
     <row r="4" spans="2:90" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
+      <c r="K4" s="92"/>
+      <c r="L4" s="44" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
       <c r="T4" s="5"/>
@@ -2318,7 +2323,7 @@
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
       <c r="AH4" s="5"/>
-      <c r="AI4" s="63"/>
+      <c r="AI4" s="62"/>
       <c r="AJ4" s="5"/>
       <c r="AK4" s="5"/>
       <c r="AL4" s="5"/>
@@ -2378,348 +2383,348 @@
     <row r="5" spans="2:90" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="57"/>
+      <c r="D5" s="56"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="67">
+      <c r="K5" s="85">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>45051</v>
       </c>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67">
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85">
         <f>K5+7</f>
         <v>45058</v>
       </c>
-      <c r="Q5" s="67"/>
-      <c r="R5" s="67"/>
-      <c r="S5" s="67"/>
-      <c r="T5" s="67"/>
-      <c r="U5" s="67">
+      <c r="Q5" s="85"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="85"/>
+      <c r="T5" s="85"/>
+      <c r="U5" s="85">
         <f>P5+7</f>
         <v>45065</v>
       </c>
-      <c r="V5" s="67"/>
-      <c r="W5" s="67"/>
-      <c r="X5" s="67"/>
-      <c r="Y5" s="67"/>
-      <c r="Z5" s="67">
+      <c r="V5" s="85"/>
+      <c r="W5" s="85"/>
+      <c r="X5" s="85"/>
+      <c r="Y5" s="85"/>
+      <c r="Z5" s="85">
         <f>U5+7</f>
         <v>45072</v>
       </c>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67">
+      <c r="AA5" s="85"/>
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85">
         <f>Z5+7</f>
         <v>45079</v>
       </c>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67">
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="85">
         <f>AE5+7</f>
         <v>45086</v>
       </c>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67">
+      <c r="AK5" s="85"/>
+      <c r="AL5" s="85"/>
+      <c r="AM5" s="85"/>
+      <c r="AN5" s="85"/>
+      <c r="AO5" s="85">
         <f>AJ5+7</f>
         <v>45093</v>
       </c>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67">
+      <c r="AP5" s="85"/>
+      <c r="AQ5" s="85"/>
+      <c r="AR5" s="85"/>
+      <c r="AS5" s="85"/>
+      <c r="AT5" s="85">
         <f>AO5+7</f>
         <v>45100</v>
       </c>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="67"/>
-      <c r="AX5" s="67"/>
-      <c r="AY5" s="67">
+      <c r="AU5" s="85"/>
+      <c r="AV5" s="85"/>
+      <c r="AW5" s="85"/>
+      <c r="AX5" s="85"/>
+      <c r="AY5" s="85">
         <f>AT5+7</f>
         <v>45107</v>
       </c>
-      <c r="AZ5" s="67"/>
-      <c r="BA5" s="67"/>
-      <c r="BB5" s="67"/>
-      <c r="BC5" s="67"/>
-      <c r="BD5" s="67">
+      <c r="AZ5" s="85"/>
+      <c r="BA5" s="85"/>
+      <c r="BB5" s="85"/>
+      <c r="BC5" s="85"/>
+      <c r="BD5" s="85">
         <f>AY5+7</f>
         <v>45114</v>
       </c>
-      <c r="BE5" s="67"/>
-      <c r="BF5" s="67"/>
-      <c r="BG5" s="67"/>
-      <c r="BH5" s="67"/>
-      <c r="BI5" s="67">
+      <c r="BE5" s="85"/>
+      <c r="BF5" s="85"/>
+      <c r="BG5" s="85"/>
+      <c r="BH5" s="85"/>
+      <c r="BI5" s="85">
         <f>BD5+7</f>
         <v>45121</v>
       </c>
-      <c r="BJ5" s="67"/>
-      <c r="BK5" s="67"/>
-      <c r="BL5" s="67"/>
-      <c r="BM5" s="67"/>
-      <c r="BN5" s="67">
+      <c r="BJ5" s="85"/>
+      <c r="BK5" s="85"/>
+      <c r="BL5" s="85"/>
+      <c r="BM5" s="85"/>
+      <c r="BN5" s="85">
         <f t="shared" ref="BN5" si="0">BI5+7</f>
         <v>45128</v>
       </c>
-      <c r="BO5" s="67"/>
-      <c r="BP5" s="67"/>
-      <c r="BQ5" s="67"/>
-      <c r="BR5" s="67"/>
-      <c r="BS5" s="67">
+      <c r="BO5" s="85"/>
+      <c r="BP5" s="85"/>
+      <c r="BQ5" s="85"/>
+      <c r="BR5" s="85"/>
+      <c r="BS5" s="85">
         <f t="shared" ref="BS5" si="1">BN5+7</f>
         <v>45135</v>
       </c>
-      <c r="BT5" s="67"/>
-      <c r="BU5" s="67"/>
-      <c r="BV5" s="67"/>
-      <c r="BW5" s="67"/>
-      <c r="BX5" s="67">
+      <c r="BT5" s="85"/>
+      <c r="BU5" s="85"/>
+      <c r="BV5" s="85"/>
+      <c r="BW5" s="85"/>
+      <c r="BX5" s="85">
         <f t="shared" ref="BX5" si="2">BS5+7</f>
         <v>45142</v>
       </c>
-      <c r="BY5" s="67"/>
-      <c r="BZ5" s="67"/>
-      <c r="CA5" s="67"/>
-      <c r="CB5" s="67"/>
-      <c r="CC5" s="67">
+      <c r="BY5" s="85"/>
+      <c r="BZ5" s="85"/>
+      <c r="CA5" s="85"/>
+      <c r="CB5" s="85"/>
+      <c r="CC5" s="85">
         <f t="shared" ref="CC5" si="3">BX5+7</f>
         <v>45149</v>
       </c>
-      <c r="CD5" s="67"/>
-      <c r="CE5" s="67"/>
-      <c r="CF5" s="67"/>
-      <c r="CG5" s="67"/>
-      <c r="CH5" s="67">
+      <c r="CD5" s="85"/>
+      <c r="CE5" s="85"/>
+      <c r="CF5" s="85"/>
+      <c r="CG5" s="85"/>
+      <c r="CH5" s="85">
         <f t="shared" ref="CH5" si="4">CC5+7</f>
         <v>45156</v>
       </c>
-      <c r="CI5" s="67"/>
-      <c r="CJ5" s="67"/>
-      <c r="CK5" s="67"/>
-      <c r="CL5" s="67"/>
+      <c r="CI5" s="85"/>
+      <c r="CJ5" s="85"/>
+      <c r="CK5" s="85"/>
+      <c r="CL5" s="85"/>
     </row>
     <row r="6" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
-      <c r="C6" s="49" t="s">
+      <c r="C6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="66">
+      <c r="D6" s="87">
         <v>45047</v>
       </c>
-      <c r="E6" s="66"/>
-      <c r="F6" s="69" t="s">
+      <c r="E6" s="87"/>
+      <c r="F6" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="69"/>
-      <c r="H6" s="35">
+      <c r="G6" s="89"/>
+      <c r="H6" s="34">
         <v>1</v>
       </c>
-      <c r="I6" s="47"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
-      <c r="AG6" s="67"/>
-      <c r="AH6" s="67"/>
-      <c r="AI6" s="67"/>
-      <c r="AJ6" s="67"/>
-      <c r="AK6" s="67"/>
-      <c r="AL6" s="67"/>
-      <c r="AM6" s="67"/>
-      <c r="AN6" s="67"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="67"/>
-      <c r="AQ6" s="67"/>
-      <c r="AR6" s="67"/>
-      <c r="AS6" s="67"/>
-      <c r="AT6" s="67"/>
-      <c r="AU6" s="67"/>
-      <c r="AV6" s="67"/>
-      <c r="AW6" s="67"/>
-      <c r="AX6" s="67"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="67"/>
-      <c r="BA6" s="67"/>
-      <c r="BB6" s="67"/>
-      <c r="BC6" s="67"/>
-      <c r="BD6" s="67"/>
-      <c r="BE6" s="67"/>
-      <c r="BF6" s="67"/>
-      <c r="BG6" s="67"/>
-      <c r="BH6" s="67"/>
-      <c r="BI6" s="67"/>
-      <c r="BJ6" s="67"/>
-      <c r="BK6" s="67"/>
-      <c r="BL6" s="67"/>
-      <c r="BM6" s="67"/>
-      <c r="BN6" s="67"/>
-      <c r="BO6" s="67"/>
-      <c r="BP6" s="67"/>
-      <c r="BQ6" s="67"/>
-      <c r="BR6" s="67"/>
-      <c r="BS6" s="67"/>
-      <c r="BT6" s="67"/>
-      <c r="BU6" s="67"/>
-      <c r="BV6" s="67"/>
-      <c r="BW6" s="67"/>
-      <c r="BX6" s="67"/>
-      <c r="BY6" s="67"/>
-      <c r="BZ6" s="67"/>
-      <c r="CA6" s="67"/>
-      <c r="CB6" s="67"/>
-      <c r="CC6" s="67"/>
-      <c r="CD6" s="67"/>
-      <c r="CE6" s="67"/>
-      <c r="CF6" s="67"/>
-      <c r="CG6" s="67"/>
-      <c r="CH6" s="67"/>
-      <c r="CI6" s="67"/>
-      <c r="CJ6" s="67"/>
-      <c r="CK6" s="67"/>
-      <c r="CL6" s="67"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="85"/>
+      <c r="AI6" s="85"/>
+      <c r="AJ6" s="85"/>
+      <c r="AK6" s="85"/>
+      <c r="AL6" s="85"/>
+      <c r="AM6" s="85"/>
+      <c r="AN6" s="85"/>
+      <c r="AO6" s="85"/>
+      <c r="AP6" s="85"/>
+      <c r="AQ6" s="85"/>
+      <c r="AR6" s="85"/>
+      <c r="AS6" s="85"/>
+      <c r="AT6" s="85"/>
+      <c r="AU6" s="85"/>
+      <c r="AV6" s="85"/>
+      <c r="AW6" s="85"/>
+      <c r="AX6" s="85"/>
+      <c r="AY6" s="85"/>
+      <c r="AZ6" s="85"/>
+      <c r="BA6" s="85"/>
+      <c r="BB6" s="85"/>
+      <c r="BC6" s="85"/>
+      <c r="BD6" s="85"/>
+      <c r="BE6" s="85"/>
+      <c r="BF6" s="85"/>
+      <c r="BG6" s="85"/>
+      <c r="BH6" s="85"/>
+      <c r="BI6" s="85"/>
+      <c r="BJ6" s="85"/>
+      <c r="BK6" s="85"/>
+      <c r="BL6" s="85"/>
+      <c r="BM6" s="85"/>
+      <c r="BN6" s="85"/>
+      <c r="BO6" s="85"/>
+      <c r="BP6" s="85"/>
+      <c r="BQ6" s="85"/>
+      <c r="BR6" s="85"/>
+      <c r="BS6" s="85"/>
+      <c r="BT6" s="85"/>
+      <c r="BU6" s="85"/>
+      <c r="BV6" s="85"/>
+      <c r="BW6" s="85"/>
+      <c r="BX6" s="85"/>
+      <c r="BY6" s="85"/>
+      <c r="BZ6" s="85"/>
+      <c r="CA6" s="85"/>
+      <c r="CB6" s="85"/>
+      <c r="CC6" s="85"/>
+      <c r="CD6" s="85"/>
+      <c r="CE6" s="85"/>
+      <c r="CF6" s="85"/>
+      <c r="CG6" s="85"/>
+      <c r="CH6" s="85"/>
+      <c r="CI6" s="85"/>
+      <c r="CJ6" s="85"/>
+      <c r="CK6" s="85"/>
+      <c r="CL6" s="85"/>
     </row>
     <row r="7" spans="2:90" ht="6.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="13"/>
-      <c r="D7" s="58"/>
+      <c r="D7" s="57"/>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="68"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="67"/>
-      <c r="W7" s="67"/>
-      <c r="X7" s="67"/>
-      <c r="Y7" s="67"/>
-      <c r="Z7" s="67"/>
-      <c r="AA7" s="67"/>
-      <c r="AB7" s="67"/>
-      <c r="AC7" s="67"/>
-      <c r="AD7" s="67"/>
-      <c r="AE7" s="67"/>
-      <c r="AF7" s="67"/>
-      <c r="AG7" s="67"/>
-      <c r="AH7" s="67"/>
-      <c r="AI7" s="67"/>
-      <c r="AJ7" s="67"/>
-      <c r="AK7" s="67"/>
-      <c r="AL7" s="67"/>
-      <c r="AM7" s="67"/>
-      <c r="AN7" s="67"/>
-      <c r="AO7" s="67"/>
-      <c r="AP7" s="67"/>
-      <c r="AQ7" s="67"/>
-      <c r="AR7" s="67"/>
-      <c r="AS7" s="67"/>
-      <c r="AT7" s="67"/>
-      <c r="AU7" s="67"/>
-      <c r="AV7" s="67"/>
-      <c r="AW7" s="67"/>
-      <c r="AX7" s="67"/>
-      <c r="AY7" s="67"/>
-      <c r="AZ7" s="67"/>
-      <c r="BA7" s="67"/>
-      <c r="BB7" s="67"/>
-      <c r="BC7" s="67"/>
-      <c r="BD7" s="67"/>
-      <c r="BE7" s="67"/>
-      <c r="BF7" s="67"/>
-      <c r="BG7" s="67"/>
-      <c r="BH7" s="67"/>
-      <c r="BI7" s="67"/>
-      <c r="BJ7" s="67"/>
-      <c r="BK7" s="67"/>
-      <c r="BL7" s="67"/>
-      <c r="BM7" s="67"/>
-      <c r="BN7" s="67"/>
-      <c r="BO7" s="67"/>
-      <c r="BP7" s="67"/>
-      <c r="BQ7" s="67"/>
-      <c r="BR7" s="67"/>
-      <c r="BS7" s="67"/>
-      <c r="BT7" s="67"/>
-      <c r="BU7" s="67"/>
-      <c r="BV7" s="67"/>
-      <c r="BW7" s="67"/>
-      <c r="BX7" s="67"/>
-      <c r="BY7" s="67"/>
-      <c r="BZ7" s="67"/>
-      <c r="CA7" s="67"/>
-      <c r="CB7" s="67"/>
-      <c r="CC7" s="67"/>
-      <c r="CD7" s="67"/>
-      <c r="CE7" s="67"/>
-      <c r="CF7" s="67"/>
-      <c r="CG7" s="67"/>
-      <c r="CH7" s="67"/>
-      <c r="CI7" s="67"/>
-      <c r="CJ7" s="67"/>
-      <c r="CK7" s="67"/>
-      <c r="CL7" s="67"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="85"/>
+      <c r="T7" s="85"/>
+      <c r="U7" s="85"/>
+      <c r="V7" s="85"/>
+      <c r="W7" s="85"/>
+      <c r="X7" s="85"/>
+      <c r="Y7" s="85"/>
+      <c r="Z7" s="85"/>
+      <c r="AA7" s="85"/>
+      <c r="AB7" s="85"/>
+      <c r="AC7" s="85"/>
+      <c r="AD7" s="85"/>
+      <c r="AE7" s="85"/>
+      <c r="AF7" s="85"/>
+      <c r="AG7" s="85"/>
+      <c r="AH7" s="85"/>
+      <c r="AI7" s="85"/>
+      <c r="AJ7" s="85"/>
+      <c r="AK7" s="85"/>
+      <c r="AL7" s="85"/>
+      <c r="AM7" s="85"/>
+      <c r="AN7" s="85"/>
+      <c r="AO7" s="85"/>
+      <c r="AP7" s="85"/>
+      <c r="AQ7" s="85"/>
+      <c r="AR7" s="85"/>
+      <c r="AS7" s="85"/>
+      <c r="AT7" s="85"/>
+      <c r="AU7" s="85"/>
+      <c r="AV7" s="85"/>
+      <c r="AW7" s="85"/>
+      <c r="AX7" s="85"/>
+      <c r="AY7" s="85"/>
+      <c r="AZ7" s="85"/>
+      <c r="BA7" s="85"/>
+      <c r="BB7" s="85"/>
+      <c r="BC7" s="85"/>
+      <c r="BD7" s="85"/>
+      <c r="BE7" s="85"/>
+      <c r="BF7" s="85"/>
+      <c r="BG7" s="85"/>
+      <c r="BH7" s="85"/>
+      <c r="BI7" s="85"/>
+      <c r="BJ7" s="85"/>
+      <c r="BK7" s="85"/>
+      <c r="BL7" s="85"/>
+      <c r="BM7" s="85"/>
+      <c r="BN7" s="85"/>
+      <c r="BO7" s="85"/>
+      <c r="BP7" s="85"/>
+      <c r="BQ7" s="85"/>
+      <c r="BR7" s="85"/>
+      <c r="BS7" s="85"/>
+      <c r="BT7" s="85"/>
+      <c r="BU7" s="85"/>
+      <c r="BV7" s="85"/>
+      <c r="BW7" s="85"/>
+      <c r="BX7" s="85"/>
+      <c r="BY7" s="85"/>
+      <c r="BZ7" s="85"/>
+      <c r="CA7" s="85"/>
+      <c r="CB7" s="85"/>
+      <c r="CC7" s="85"/>
+      <c r="CD7" s="85"/>
+      <c r="CE7" s="85"/>
+      <c r="CF7" s="85"/>
+      <c r="CG7" s="85"/>
+      <c r="CH7" s="85"/>
+      <c r="CI7" s="85"/>
+      <c r="CJ7" s="85"/>
+      <c r="CK7" s="85"/>
+      <c r="CL7" s="85"/>
     </row>
     <row r="8" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="32"/>
+      <c r="D8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="E8" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="48" t="s">
+      <c r="G8" s="47" t="s">
         <v>2</v>
       </c>
-      <c r="H8" s="34" t="s">
+      <c r="H8" s="33" t="s">
         <v>3</v>
       </c>
       <c r="I8" s="29" t="s">
@@ -3048,13 +3053,13 @@
     </row>
     <row r="9" spans="2:90" ht="16.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
-      <c r="H9" s="61"/>
-      <c r="I9" s="61"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="16"/>
       <c r="K9" s="20" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -3383,9 +3388,9 @@
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
       <c r="F10" s="30"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="40"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="35"/>
+      <c r="I10" s="39"/>
       <c r="J10" s="16"/>
       <c r="K10" s="26"/>
       <c r="L10" s="26"/>
@@ -3473,7 +3478,7 @@
       <c r="C11" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="59"/>
+      <c r="D11" s="58"/>
       <c r="E11" s="24">
         <f>IF(MIN(E12:E25)&gt;0,MIN(E12:E25),"")</f>
         <v>45075</v>
@@ -3482,14 +3487,14 @@
         <f>IF(MAX(F12:F25)&gt;0,MAX(F12:F25),"")</f>
         <v>45107</v>
       </c>
-      <c r="G11" s="37" t="str">
+      <c r="G11" s="36" t="str">
         <f>IF(OR(E11="",F11=""),"",NETWORKDAYS(E11,F11)&amp; " day(s)")</f>
         <v>25 day(s)</v>
       </c>
-      <c r="H11" s="37"/>
-      <c r="I11" s="41">
+      <c r="H11" s="36"/>
+      <c r="I11" s="40">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.19642857142857142</v>
+        <v>0.45714285714285713</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3585,12 +3590,12 @@
       <c r="F12" s="6">
         <v>45079</v>
       </c>
-      <c r="G12" s="64" t="str">
+      <c r="G12" s="63" t="str">
         <f>IF(OR(E12=0,F12=0),"",NETWORKDAYS(E12,F12)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="42">
+      <c r="H12" s="37"/>
+      <c r="I12" s="41">
         <v>1</v>
       </c>
       <c r="J12" s="18"/>
@@ -3687,12 +3692,12 @@
       <c r="F13" s="6">
         <v>45086</v>
       </c>
-      <c r="G13" s="64" t="str">
+      <c r="G13" s="63" t="str">
         <f t="shared" ref="G13" si="44">IF(OR(E13=0,F13=0),"",NETWORKDAYS(E13,F13)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H13" s="38"/>
-      <c r="I13" s="42">
+      <c r="H13" s="37"/>
+      <c r="I13" s="41">
         <v>1</v>
       </c>
       <c r="J13" s="18"/>
@@ -3789,13 +3794,13 @@
       <c r="F14" s="6">
         <v>45093</v>
       </c>
-      <c r="G14" s="64" t="str">
+      <c r="G14" s="63" t="str">
         <f t="shared" ref="G14:G16" si="45">IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H14" s="38"/>
-      <c r="I14" s="42">
-        <v>0.75</v>
+      <c r="H14" s="37"/>
+      <c r="I14" s="82">
+        <v>1</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="8"/>
@@ -3891,13 +3896,13 @@
       <c r="F15" s="6">
         <v>45101</v>
       </c>
-      <c r="G15" s="64" t="str">
+      <c r="G15" s="63" t="str">
         <f t="shared" si="45"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H15" s="38"/>
-      <c r="I15" s="42">
-        <v>0</v>
+      <c r="H15" s="37"/>
+      <c r="I15" s="82">
+        <v>0.8</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="8"/>
@@ -3993,13 +3998,13 @@
       <c r="F16" s="6">
         <v>45107</v>
       </c>
-      <c r="G16" s="64" t="str">
+      <c r="G16" s="63" t="str">
         <f t="shared" si="45"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H16" s="38"/>
-      <c r="I16" s="42">
-        <v>0</v>
+      <c r="H16" s="37"/>
+      <c r="I16" s="82">
+        <v>0.7</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="8"/>
@@ -4091,10 +4096,10 @@
       <c r="D17" s="8"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6"/>
-      <c r="G17" s="64"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="42">
-        <v>0</v>
+      <c r="G17" s="63"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="82">
+        <v>0.5</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4186,10 +4191,10 @@
       <c r="D18" s="8"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
-      <c r="G18" s="64"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="42">
-        <v>0</v>
+      <c r="G18" s="63"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="82">
+        <v>0.8</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4275,15 +4280,15 @@
     </row>
     <row r="19" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="7" t="s">
+      <c r="C19" s="91" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="64"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="42">
+      <c r="G19" s="63"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="82">
         <v>0</v>
       </c>
       <c r="J19" s="18"/>
@@ -4376,10 +4381,10 @@
       <c r="D20" s="8"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6"/>
-      <c r="G20" s="64"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="42">
-        <v>0</v>
+      <c r="G20" s="63"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="82">
+        <v>0.6</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -4465,15 +4470,15 @@
     </row>
     <row r="21" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="70" t="s">
+      <c r="C21" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="71"/>
+      <c r="D21" s="65"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6"/>
-      <c r="G21" s="72"/>
-      <c r="H21" s="38"/>
-      <c r="I21" s="42">
+      <c r="G21" s="66"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="41">
         <v>0</v>
       </c>
       <c r="J21" s="18"/>
@@ -4560,15 +4565,15 @@
     </row>
     <row r="22" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="70" t="s">
+      <c r="C22" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="71"/>
+      <c r="D22" s="65"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
-      <c r="G22" s="72"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="42">
+      <c r="G22" s="66"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="41">
         <v>0</v>
       </c>
       <c r="J22" s="18"/>
@@ -4655,15 +4660,15 @@
     </row>
     <row r="23" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="70" t="s">
+      <c r="C23" s="90" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="71"/>
+      <c r="D23" s="65"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
-      <c r="G23" s="72"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="42">
+      <c r="G23" s="66"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="41">
         <v>0</v>
       </c>
       <c r="J23" s="18"/>
@@ -4750,15 +4755,15 @@
     </row>
     <row r="24" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
-      <c r="C24" s="70" t="s">
+      <c r="C24" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="D24" s="71"/>
+      <c r="D24" s="65"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
-      <c r="G24" s="72"/>
-      <c r="H24" s="38"/>
-      <c r="I24" s="42">
+      <c r="G24" s="66"/>
+      <c r="H24" s="37"/>
+      <c r="I24" s="41">
         <v>0</v>
       </c>
       <c r="J24" s="18"/>
@@ -4851,9 +4856,9 @@
       <c r="D25" s="8"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
-      <c r="G25" s="64"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="42">
+      <c r="G25" s="63"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="41">
         <v>0</v>
       </c>
       <c r="J25" s="18"/>
@@ -4943,7 +4948,7 @@
       <c r="C26" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D26" s="59"/>
+      <c r="D26" s="58"/>
       <c r="E26" s="24">
         <f>IF(MIN(E27:E32)&gt;0,MIN(E27:E32),"")</f>
         <v>45075</v>
@@ -4952,14 +4957,14 @@
         <f>IF(MAX(F27:F32)&gt;0,MAX(F27:F32),"")</f>
         <v>45107</v>
       </c>
-      <c r="G26" s="37" t="str">
+      <c r="G26" s="36" t="str">
         <f>IF(OR(E26="",F26=""),"",NETWORKDAYS(E26,F26)&amp; " day(s)")</f>
         <v>25 day(s)</v>
       </c>
-      <c r="H26" s="37"/>
-      <c r="I26" s="41">
+      <c r="H26" s="36"/>
+      <c r="I26" s="40">
         <f>AVERAGE(I27:I32)</f>
-        <v>0.29166666666666669</v>
+        <v>0.6166666666666667</v>
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="8"/>
@@ -5055,12 +5060,12 @@
       <c r="F27" s="6">
         <v>45079</v>
       </c>
-      <c r="G27" s="64" t="str">
+      <c r="G27" s="63" t="str">
         <f t="shared" ref="G27" si="46">IF(OR(E27=0,F27=0),"",NETWORKDAYS(E27,F27)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="42">
+      <c r="H27" s="37"/>
+      <c r="I27" s="41">
         <v>1</v>
       </c>
       <c r="J27" s="18"/>
@@ -5157,13 +5162,13 @@
       <c r="F28" s="6">
         <v>45093</v>
       </c>
-      <c r="G28" s="64" t="str">
+      <c r="G28" s="63" t="str">
         <f t="shared" ref="G28:G32" si="47">IF(OR(E28=0,F28=0),"",NETWORKDAYS(E28,F28)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H28" s="38"/>
-      <c r="I28" s="42">
-        <v>0.45</v>
+      <c r="H28" s="37"/>
+      <c r="I28" s="41">
+        <v>1</v>
       </c>
       <c r="J28" s="18"/>
       <c r="K28" s="8"/>
@@ -5259,13 +5264,13 @@
       <c r="F29" s="6">
         <v>45101</v>
       </c>
-      <c r="G29" s="64" t="str">
+      <c r="G29" s="63" t="str">
         <f t="shared" si="47"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H29" s="38"/>
-      <c r="I29" s="42">
-        <v>0.3</v>
+      <c r="H29" s="37"/>
+      <c r="I29" s="41">
+        <v>1</v>
       </c>
       <c r="J29" s="18"/>
       <c r="K29" s="8"/>
@@ -5361,13 +5366,13 @@
       <c r="F30" s="6">
         <v>45107</v>
       </c>
-      <c r="G30" s="64" t="str">
+      <c r="G30" s="63" t="str">
         <f t="shared" si="47"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H30" s="38"/>
-      <c r="I30" s="42">
-        <v>0</v>
+      <c r="H30" s="37"/>
+      <c r="I30" s="41">
+        <v>0.7</v>
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="8"/>
@@ -5459,12 +5464,12 @@
       <c r="D31" s="8"/>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
-      <c r="G31" s="64" t="str">
+      <c r="G31" s="63" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H31" s="38"/>
-      <c r="I31" s="42">
+      <c r="H31" s="37"/>
+      <c r="I31" s="41">
         <v>0</v>
       </c>
       <c r="J31" s="18"/>
@@ -5557,12 +5562,12 @@
       <c r="D32" s="8"/>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
-      <c r="G32" s="64" t="str">
+      <c r="G32" s="63" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="H32" s="38"/>
-      <c r="I32" s="42">
+      <c r="H32" s="37"/>
+      <c r="I32" s="41">
         <v>0</v>
       </c>
       <c r="J32" s="18"/>
@@ -5652,7 +5657,7 @@
       <c r="C33" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="58"/>
       <c r="E33" s="24">
         <f>IF(MIN(E34:E36)&gt;0,MIN(E34:E36),"")</f>
         <v>45080</v>
@@ -5661,12 +5666,12 @@
         <f>IF(MAX(F34:F36)&gt;0,MAX(F34:F36),"")</f>
         <v>45086</v>
       </c>
-      <c r="G33" s="37" t="str">
+      <c r="G33" s="36" t="str">
         <f>IF(OR(E33="",F33=""),"",NETWORKDAYS(E33,F33)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H33" s="37"/>
-      <c r="I33" s="41">
+      <c r="H33" s="36"/>
+      <c r="I33" s="40">
         <f>AVERAGE(I34:I36)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -5764,12 +5769,12 @@
       <c r="F34" s="6">
         <v>45086</v>
       </c>
-      <c r="G34" s="64" t="str">
+      <c r="G34" s="63" t="str">
         <f t="shared" ref="G34" si="48">IF(OR(E34=0,F34=0),"",NETWORKDAYS(E34,F34)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H34" s="38"/>
-      <c r="I34" s="42">
+      <c r="H34" s="37"/>
+      <c r="I34" s="41">
         <v>1</v>
       </c>
       <c r="J34" s="18"/>
@@ -5862,9 +5867,9 @@
       <c r="D35" s="8"/>
       <c r="E35" s="6"/>
       <c r="F35" s="6"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="42">
+      <c r="G35" s="63"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="41">
         <v>0</v>
       </c>
       <c r="J35" s="18"/>
@@ -5957,9 +5962,9 @@
       <c r="D36" s="8"/>
       <c r="E36" s="6"/>
       <c r="F36" s="6"/>
-      <c r="G36" s="64"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="42">
+      <c r="G36" s="63"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="41">
         <v>0</v>
       </c>
       <c r="J36" s="18"/>
@@ -6049,7 +6054,7 @@
       <c r="C37" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="58"/>
       <c r="E37" s="24">
         <f>IF(MIN(E38:E41)&gt;0,MIN(E38:E41),"")</f>
         <v>45075</v>
@@ -6058,14 +6063,14 @@
         <f>IF(MAX(F38:F41)&gt;0,MAX(F38:F41),"")</f>
         <v>45107</v>
       </c>
-      <c r="G37" s="37" t="str">
+      <c r="G37" s="36" t="str">
         <f>IF(OR(E37="",F37=""),"",NETWORKDAYS(E37,F37)&amp; " day(s)")</f>
         <v>25 day(s)</v>
       </c>
-      <c r="H37" s="37"/>
-      <c r="I37" s="41">
+      <c r="H37" s="36"/>
+      <c r="I37" s="40">
         <f>AVERAGE(I38:I41)</f>
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="8"/>
@@ -6161,12 +6166,12 @@
       <c r="F38" s="6">
         <v>45079</v>
       </c>
-      <c r="G38" s="64" t="str">
+      <c r="G38" s="63" t="str">
         <f t="shared" ref="G38:G40" si="49">IF(OR(E38=0,F38=0),"",NETWORKDAYS(E38,F38)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H38" s="38"/>
-      <c r="I38" s="42">
+      <c r="H38" s="37"/>
+      <c r="I38" s="41">
         <v>1</v>
       </c>
       <c r="J38" s="18"/>
@@ -6263,12 +6268,12 @@
       <c r="F39" s="6">
         <v>45093</v>
       </c>
-      <c r="G39" s="64" t="str">
+      <c r="G39" s="63" t="str">
         <f t="shared" si="49"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H39" s="38"/>
-      <c r="I39" s="42">
+      <c r="H39" s="37"/>
+      <c r="I39" s="41">
         <v>1</v>
       </c>
       <c r="J39" s="18"/>
@@ -6365,12 +6370,12 @@
       <c r="F40" s="6">
         <v>45107</v>
       </c>
-      <c r="G40" s="64" t="str">
+      <c r="G40" s="63" t="str">
         <f t="shared" si="49"/>
         <v>5 day(s)</v>
       </c>
-      <c r="H40" s="38"/>
-      <c r="I40" s="42">
+      <c r="H40" s="37"/>
+      <c r="I40" s="41">
         <v>1</v>
       </c>
       <c r="J40" s="18"/>
@@ -6463,10 +6468,10 @@
       <c r="D41" s="8"/>
       <c r="E41" s="6"/>
       <c r="F41" s="6"/>
-      <c r="G41" s="64"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="42">
-        <v>0</v>
+      <c r="G41" s="63"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="41">
+        <v>1</v>
       </c>
       <c r="J41" s="18"/>
       <c r="K41" s="8"/>
@@ -6555,7 +6560,7 @@
       <c r="C42" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="58"/>
       <c r="E42" s="24">
         <f>IF(MIN(E43:E45)&gt;0,MIN(E43:E45),"")</f>
         <v>45075</v>
@@ -6564,12 +6569,12 @@
         <f>IF(MAX(F43:F45)&gt;0,MAX(F43:F45),"")</f>
         <v>45079</v>
       </c>
-      <c r="G42" s="37" t="str">
+      <c r="G42" s="36" t="str">
         <f>IF(OR(E42="",F42=""),"",NETWORKDAYS(E42,F42)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="41">
+      <c r="H42" s="36"/>
+      <c r="I42" s="40">
         <f>AVERAGE(I43:I45)</f>
         <v>0.33333333333333331</v>
       </c>
@@ -6667,12 +6672,12 @@
       <c r="F43" s="6">
         <v>45079</v>
       </c>
-      <c r="G43" s="64" t="str">
+      <c r="G43" s="63" t="str">
         <f t="shared" ref="G43" si="50">IF(OR(E43=0,F43=0),"",NETWORKDAYS(E43,F43)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H43" s="38"/>
-      <c r="I43" s="42">
+      <c r="H43" s="37"/>
+      <c r="I43" s="41">
         <v>1</v>
       </c>
       <c r="J43" s="19"/>
@@ -6765,12 +6770,12 @@
       <c r="D44" s="8"/>
       <c r="E44" s="6"/>
       <c r="F44" s="6"/>
-      <c r="G44" s="64" t="str">
+      <c r="G44" s="63" t="str">
         <f t="shared" ref="G44:G45" si="51">IF(OR(E44=0,F44=0),"",NETWORKDAYS(E44,F44)&amp; " day(s)")</f>
         <v/>
       </c>
-      <c r="H44" s="38"/>
-      <c r="I44" s="42">
+      <c r="H44" s="37"/>
+      <c r="I44" s="41">
         <v>0</v>
       </c>
       <c r="J44" s="19"/>
@@ -6863,12 +6868,12 @@
       <c r="D45" s="8"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
-      <c r="G45" s="64" t="str">
+      <c r="G45" s="63" t="str">
         <f t="shared" si="51"/>
         <v/>
       </c>
-      <c r="H45" s="38"/>
-      <c r="I45" s="42">
+      <c r="H45" s="37"/>
+      <c r="I45" s="41">
         <v>0</v>
       </c>
       <c r="J45" s="19"/>
@@ -6954,11 +6959,11 @@
       <c r="CL45" s="8"/>
     </row>
     <row r="46" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="78"/>
-      <c r="C46" s="85" t="s">
+      <c r="B46" s="72"/>
+      <c r="C46" s="79" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="90"/>
+      <c r="D46" s="83"/>
       <c r="E46" s="24" t="str">
         <f>IF(MIN(E47:E49)&gt;0,MIN(E47:E49),"")</f>
         <v/>
@@ -6967,391 +6972,391 @@
         <f>IF(MAX(F47:F49)&gt;0,MAX(F47:F49),"")</f>
         <v/>
       </c>
-      <c r="G46" s="37" t="str">
+      <c r="G46" s="36" t="str">
         <f>IF(OR(E46="",F46=""),"",NETWORKDAYS(E46,F46)&amp; " day(s)")</f>
         <v/>
       </c>
-      <c r="H46" s="86"/>
-      <c r="I46" s="41">
+      <c r="H46" s="80"/>
+      <c r="I46" s="40">
         <f>AVERAGE(I47:I49)</f>
         <v>0</v>
       </c>
-      <c r="J46" s="83"/>
-      <c r="K46" s="81"/>
-      <c r="L46" s="81"/>
-      <c r="M46" s="81"/>
-      <c r="N46" s="81"/>
-      <c r="O46" s="81"/>
-      <c r="P46" s="81"/>
-      <c r="Q46" s="81"/>
-      <c r="R46" s="81"/>
-      <c r="S46" s="81"/>
-      <c r="T46" s="81"/>
-      <c r="U46" s="81"/>
-      <c r="V46" s="81"/>
-      <c r="W46" s="81"/>
-      <c r="X46" s="81"/>
-      <c r="Y46" s="81"/>
-      <c r="Z46" s="81"/>
-      <c r="AA46" s="81"/>
-      <c r="AB46" s="81"/>
-      <c r="AC46" s="81"/>
-      <c r="AD46" s="81"/>
-      <c r="AE46" s="81"/>
-      <c r="AF46" s="81"/>
-      <c r="AG46" s="81"/>
-      <c r="AH46" s="81"/>
-      <c r="AI46" s="81"/>
-      <c r="AJ46" s="81"/>
-      <c r="AK46" s="81"/>
-      <c r="AL46" s="81"/>
-      <c r="AM46" s="81"/>
-      <c r="AN46" s="81"/>
-      <c r="AO46" s="81"/>
-      <c r="AP46" s="81"/>
-      <c r="AQ46" s="81"/>
-      <c r="AR46" s="81"/>
-      <c r="AS46" s="81"/>
-      <c r="AT46" s="81"/>
-      <c r="AU46" s="81"/>
-      <c r="AV46" s="81"/>
-      <c r="AW46" s="81"/>
-      <c r="AX46" s="81"/>
-      <c r="AY46" s="81"/>
-      <c r="AZ46" s="81"/>
-      <c r="BA46" s="81"/>
-      <c r="BB46" s="81"/>
-      <c r="BC46" s="81"/>
-      <c r="BD46" s="81"/>
-      <c r="BE46" s="81"/>
-      <c r="BF46" s="81"/>
-      <c r="BG46" s="81"/>
-      <c r="BH46" s="81"/>
-      <c r="BI46" s="81"/>
-      <c r="BJ46" s="81"/>
-      <c r="BK46" s="81"/>
-      <c r="BL46" s="81"/>
-      <c r="BM46" s="81"/>
-      <c r="BN46" s="81"/>
-      <c r="BO46" s="81"/>
-      <c r="BP46" s="81"/>
-      <c r="BQ46" s="81"/>
-      <c r="BR46" s="81"/>
-      <c r="BS46" s="81"/>
-      <c r="BT46" s="81"/>
-      <c r="BU46" s="81"/>
-      <c r="BV46" s="81"/>
-      <c r="BW46" s="81"/>
-      <c r="BX46" s="81"/>
-      <c r="BY46" s="81"/>
-      <c r="BZ46" s="81"/>
-      <c r="CA46" s="81"/>
-      <c r="CB46" s="81"/>
-      <c r="CC46" s="81"/>
-      <c r="CD46" s="81"/>
-      <c r="CE46" s="81"/>
-      <c r="CF46" s="81"/>
-      <c r="CG46" s="81"/>
-      <c r="CH46" s="81"/>
-      <c r="CI46" s="81"/>
-      <c r="CJ46" s="81"/>
-      <c r="CK46" s="81"/>
-      <c r="CL46" s="81"/>
+      <c r="J46" s="77"/>
+      <c r="K46" s="75"/>
+      <c r="L46" s="75"/>
+      <c r="M46" s="75"/>
+      <c r="N46" s="75"/>
+      <c r="O46" s="75"/>
+      <c r="P46" s="75"/>
+      <c r="Q46" s="75"/>
+      <c r="R46" s="75"/>
+      <c r="S46" s="75"/>
+      <c r="T46" s="75"/>
+      <c r="U46" s="75"/>
+      <c r="V46" s="75"/>
+      <c r="W46" s="75"/>
+      <c r="X46" s="75"/>
+      <c r="Y46" s="75"/>
+      <c r="Z46" s="75"/>
+      <c r="AA46" s="75"/>
+      <c r="AB46" s="75"/>
+      <c r="AC46" s="75"/>
+      <c r="AD46" s="75"/>
+      <c r="AE46" s="75"/>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="75"/>
+      <c r="AH46" s="75"/>
+      <c r="AI46" s="75"/>
+      <c r="AJ46" s="75"/>
+      <c r="AK46" s="75"/>
+      <c r="AL46" s="75"/>
+      <c r="AM46" s="75"/>
+      <c r="AN46" s="75"/>
+      <c r="AO46" s="75"/>
+      <c r="AP46" s="75"/>
+      <c r="AQ46" s="75"/>
+      <c r="AR46" s="75"/>
+      <c r="AS46" s="75"/>
+      <c r="AT46" s="75"/>
+      <c r="AU46" s="75"/>
+      <c r="AV46" s="75"/>
+      <c r="AW46" s="75"/>
+      <c r="AX46" s="75"/>
+      <c r="AY46" s="75"/>
+      <c r="AZ46" s="75"/>
+      <c r="BA46" s="75"/>
+      <c r="BB46" s="75"/>
+      <c r="BC46" s="75"/>
+      <c r="BD46" s="75"/>
+      <c r="BE46" s="75"/>
+      <c r="BF46" s="75"/>
+      <c r="BG46" s="75"/>
+      <c r="BH46" s="75"/>
+      <c r="BI46" s="75"/>
+      <c r="BJ46" s="75"/>
+      <c r="BK46" s="75"/>
+      <c r="BL46" s="75"/>
+      <c r="BM46" s="75"/>
+      <c r="BN46" s="75"/>
+      <c r="BO46" s="75"/>
+      <c r="BP46" s="75"/>
+      <c r="BQ46" s="75"/>
+      <c r="BR46" s="75"/>
+      <c r="BS46" s="75"/>
+      <c r="BT46" s="75"/>
+      <c r="BU46" s="75"/>
+      <c r="BV46" s="75"/>
+      <c r="BW46" s="75"/>
+      <c r="BX46" s="75"/>
+      <c r="BY46" s="75"/>
+      <c r="BZ46" s="75"/>
+      <c r="CA46" s="75"/>
+      <c r="CB46" s="75"/>
+      <c r="CC46" s="75"/>
+      <c r="CD46" s="75"/>
+      <c r="CE46" s="75"/>
+      <c r="CF46" s="75"/>
+      <c r="CG46" s="75"/>
+      <c r="CH46" s="75"/>
+      <c r="CI46" s="75"/>
+      <c r="CJ46" s="75"/>
+      <c r="CK46" s="75"/>
+      <c r="CL46" s="75"/>
     </row>
     <row r="47" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="78"/>
-      <c r="C47" s="80" t="s">
+      <c r="B47" s="72"/>
+      <c r="C47" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="D47" s="81"/>
-      <c r="E47" s="79"/>
-      <c r="F47" s="79"/>
-      <c r="G47" s="91"/>
-      <c r="H47" s="87"/>
-      <c r="I47" s="88">
+      <c r="D47" s="75"/>
+      <c r="E47" s="73"/>
+      <c r="F47" s="73"/>
+      <c r="G47" s="84"/>
+      <c r="H47" s="81"/>
+      <c r="I47" s="82">
         <v>0</v>
       </c>
-      <c r="J47" s="83"/>
-      <c r="K47" s="81"/>
-      <c r="L47" s="81"/>
-      <c r="M47" s="81"/>
-      <c r="N47" s="81"/>
-      <c r="O47" s="81"/>
-      <c r="P47" s="81"/>
-      <c r="Q47" s="81"/>
-      <c r="R47" s="81"/>
-      <c r="S47" s="81"/>
-      <c r="T47" s="81"/>
-      <c r="U47" s="81"/>
-      <c r="V47" s="81"/>
-      <c r="W47" s="81"/>
-      <c r="X47" s="81"/>
-      <c r="Y47" s="81"/>
-      <c r="Z47" s="81"/>
-      <c r="AA47" s="81"/>
-      <c r="AB47" s="81"/>
-      <c r="AC47" s="81"/>
-      <c r="AD47" s="81"/>
-      <c r="AE47" s="81"/>
-      <c r="AF47" s="81"/>
-      <c r="AG47" s="81"/>
-      <c r="AH47" s="81"/>
-      <c r="AI47" s="81"/>
-      <c r="AJ47" s="81"/>
-      <c r="AK47" s="81"/>
-      <c r="AL47" s="81"/>
-      <c r="AM47" s="81"/>
-      <c r="AN47" s="81"/>
-      <c r="AO47" s="81"/>
-      <c r="AP47" s="81"/>
-      <c r="AQ47" s="81"/>
-      <c r="AR47" s="81"/>
-      <c r="AS47" s="81"/>
-      <c r="AT47" s="81"/>
-      <c r="AU47" s="81"/>
-      <c r="AV47" s="81"/>
-      <c r="AW47" s="81"/>
-      <c r="AX47" s="81"/>
-      <c r="AY47" s="81"/>
-      <c r="AZ47" s="81"/>
-      <c r="BA47" s="81"/>
-      <c r="BB47" s="81"/>
-      <c r="BC47" s="81"/>
-      <c r="BD47" s="81"/>
-      <c r="BE47" s="81"/>
-      <c r="BF47" s="81"/>
-      <c r="BG47" s="81"/>
-      <c r="BH47" s="81"/>
-      <c r="BI47" s="81"/>
-      <c r="BJ47" s="81"/>
-      <c r="BK47" s="81"/>
-      <c r="BL47" s="81"/>
-      <c r="BM47" s="81"/>
-      <c r="BN47" s="81"/>
-      <c r="BO47" s="81"/>
-      <c r="BP47" s="81"/>
-      <c r="BQ47" s="81"/>
-      <c r="BR47" s="81"/>
-      <c r="BS47" s="81"/>
-      <c r="BT47" s="81"/>
-      <c r="BU47" s="81"/>
-      <c r="BV47" s="81"/>
-      <c r="BW47" s="81"/>
-      <c r="BX47" s="81"/>
-      <c r="BY47" s="81"/>
-      <c r="BZ47" s="81"/>
-      <c r="CA47" s="81"/>
-      <c r="CB47" s="81"/>
-      <c r="CC47" s="81"/>
-      <c r="CD47" s="81"/>
-      <c r="CE47" s="81"/>
-      <c r="CF47" s="81"/>
-      <c r="CG47" s="81"/>
-      <c r="CH47" s="81"/>
-      <c r="CI47" s="81"/>
-      <c r="CJ47" s="81"/>
-      <c r="CK47" s="81"/>
-      <c r="CL47" s="81"/>
+      <c r="J47" s="77"/>
+      <c r="K47" s="75"/>
+      <c r="L47" s="75"/>
+      <c r="M47" s="75"/>
+      <c r="N47" s="75"/>
+      <c r="O47" s="75"/>
+      <c r="P47" s="75"/>
+      <c r="Q47" s="75"/>
+      <c r="R47" s="75"/>
+      <c r="S47" s="75"/>
+      <c r="T47" s="75"/>
+      <c r="U47" s="75"/>
+      <c r="V47" s="75"/>
+      <c r="W47" s="75"/>
+      <c r="X47" s="75"/>
+      <c r="Y47" s="75"/>
+      <c r="Z47" s="75"/>
+      <c r="AA47" s="75"/>
+      <c r="AB47" s="75"/>
+      <c r="AC47" s="75"/>
+      <c r="AD47" s="75"/>
+      <c r="AE47" s="75"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="75"/>
+      <c r="AL47" s="75"/>
+      <c r="AM47" s="75"/>
+      <c r="AN47" s="75"/>
+      <c r="AO47" s="75"/>
+      <c r="AP47" s="75"/>
+      <c r="AQ47" s="75"/>
+      <c r="AR47" s="75"/>
+      <c r="AS47" s="75"/>
+      <c r="AT47" s="75"/>
+      <c r="AU47" s="75"/>
+      <c r="AV47" s="75"/>
+      <c r="AW47" s="75"/>
+      <c r="AX47" s="75"/>
+      <c r="AY47" s="75"/>
+      <c r="AZ47" s="75"/>
+      <c r="BA47" s="75"/>
+      <c r="BB47" s="75"/>
+      <c r="BC47" s="75"/>
+      <c r="BD47" s="75"/>
+      <c r="BE47" s="75"/>
+      <c r="BF47" s="75"/>
+      <c r="BG47" s="75"/>
+      <c r="BH47" s="75"/>
+      <c r="BI47" s="75"/>
+      <c r="BJ47" s="75"/>
+      <c r="BK47" s="75"/>
+      <c r="BL47" s="75"/>
+      <c r="BM47" s="75"/>
+      <c r="BN47" s="75"/>
+      <c r="BO47" s="75"/>
+      <c r="BP47" s="75"/>
+      <c r="BQ47" s="75"/>
+      <c r="BR47" s="75"/>
+      <c r="BS47" s="75"/>
+      <c r="BT47" s="75"/>
+      <c r="BU47" s="75"/>
+      <c r="BV47" s="75"/>
+      <c r="BW47" s="75"/>
+      <c r="BX47" s="75"/>
+      <c r="BY47" s="75"/>
+      <c r="BZ47" s="75"/>
+      <c r="CA47" s="75"/>
+      <c r="CB47" s="75"/>
+      <c r="CC47" s="75"/>
+      <c r="CD47" s="75"/>
+      <c r="CE47" s="75"/>
+      <c r="CF47" s="75"/>
+      <c r="CG47" s="75"/>
+      <c r="CH47" s="75"/>
+      <c r="CI47" s="75"/>
+      <c r="CJ47" s="75"/>
+      <c r="CK47" s="75"/>
+      <c r="CL47" s="75"/>
     </row>
     <row r="48" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="78"/>
-      <c r="C48" s="80" t="s">
+      <c r="B48" s="72"/>
+      <c r="C48" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D48" s="81"/>
-      <c r="E48" s="79"/>
-      <c r="F48" s="79"/>
-      <c r="G48" s="91"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="88">
+      <c r="D48" s="75"/>
+      <c r="E48" s="73"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="84"/>
+      <c r="H48" s="81"/>
+      <c r="I48" s="82">
         <v>0</v>
       </c>
-      <c r="J48" s="84"/>
-      <c r="K48" s="82"/>
-      <c r="L48" s="82"/>
-      <c r="M48" s="82"/>
-      <c r="N48" s="82"/>
-      <c r="O48" s="82"/>
-      <c r="P48" s="82"/>
-      <c r="Q48" s="82"/>
-      <c r="R48" s="82"/>
-      <c r="S48" s="82"/>
-      <c r="T48" s="82"/>
-      <c r="U48" s="82"/>
-      <c r="V48" s="82"/>
-      <c r="W48" s="82"/>
-      <c r="X48" s="82"/>
-      <c r="Y48" s="82"/>
-      <c r="Z48" s="82"/>
-      <c r="AA48" s="82"/>
-      <c r="AB48" s="82"/>
-      <c r="AC48" s="82"/>
-      <c r="AD48" s="82"/>
-      <c r="AE48" s="82"/>
-      <c r="AF48" s="82"/>
-      <c r="AG48" s="82"/>
-      <c r="AH48" s="82"/>
-      <c r="AI48" s="82"/>
-      <c r="AJ48" s="82"/>
-      <c r="AK48" s="82"/>
-      <c r="AL48" s="82"/>
-      <c r="AM48" s="82"/>
-      <c r="AN48" s="82"/>
-      <c r="AO48" s="82"/>
-      <c r="AP48" s="82"/>
-      <c r="AQ48" s="82"/>
-      <c r="AR48" s="82"/>
-      <c r="AS48" s="82"/>
-      <c r="AT48" s="82"/>
-      <c r="AU48" s="82"/>
-      <c r="AV48" s="82"/>
-      <c r="AW48" s="82"/>
-      <c r="AX48" s="82"/>
-      <c r="AY48" s="82"/>
-      <c r="AZ48" s="82"/>
-      <c r="BA48" s="82"/>
-      <c r="BB48" s="82"/>
-      <c r="BC48" s="82"/>
-      <c r="BD48" s="82"/>
-      <c r="BE48" s="82"/>
-      <c r="BF48" s="82"/>
-      <c r="BG48" s="82"/>
-      <c r="BH48" s="82"/>
-      <c r="BI48" s="82"/>
-      <c r="BJ48" s="82"/>
-      <c r="BK48" s="82"/>
-      <c r="BL48" s="82"/>
-      <c r="BM48" s="82"/>
-      <c r="BN48" s="82"/>
-      <c r="BO48" s="82"/>
-      <c r="BP48" s="82"/>
-      <c r="BQ48" s="82"/>
-      <c r="BR48" s="82"/>
-      <c r="BS48" s="82"/>
-      <c r="BT48" s="82"/>
-      <c r="BU48" s="82"/>
-      <c r="BV48" s="82"/>
-      <c r="BW48" s="82"/>
-      <c r="BX48" s="82"/>
-      <c r="BY48" s="82"/>
-      <c r="BZ48" s="82"/>
-      <c r="CA48" s="82"/>
-      <c r="CB48" s="82"/>
-      <c r="CC48" s="82"/>
-      <c r="CD48" s="82"/>
-      <c r="CE48" s="82"/>
-      <c r="CF48" s="82"/>
-      <c r="CG48" s="82"/>
-      <c r="CH48" s="82"/>
-      <c r="CI48" s="82"/>
-      <c r="CJ48" s="82"/>
-      <c r="CK48" s="82"/>
-      <c r="CL48" s="82"/>
+      <c r="J48" s="78"/>
+      <c r="K48" s="76"/>
+      <c r="L48" s="76"/>
+      <c r="M48" s="76"/>
+      <c r="N48" s="76"/>
+      <c r="O48" s="76"/>
+      <c r="P48" s="76"/>
+      <c r="Q48" s="76"/>
+      <c r="R48" s="76"/>
+      <c r="S48" s="76"/>
+      <c r="T48" s="76"/>
+      <c r="U48" s="76"/>
+      <c r="V48" s="76"/>
+      <c r="W48" s="76"/>
+      <c r="X48" s="76"/>
+      <c r="Y48" s="76"/>
+      <c r="Z48" s="76"/>
+      <c r="AA48" s="76"/>
+      <c r="AB48" s="76"/>
+      <c r="AC48" s="76"/>
+      <c r="AD48" s="76"/>
+      <c r="AE48" s="76"/>
+      <c r="AF48" s="76"/>
+      <c r="AG48" s="76"/>
+      <c r="AH48" s="76"/>
+      <c r="AI48" s="76"/>
+      <c r="AJ48" s="76"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="76"/>
+      <c r="AM48" s="76"/>
+      <c r="AN48" s="76"/>
+      <c r="AO48" s="76"/>
+      <c r="AP48" s="76"/>
+      <c r="AQ48" s="76"/>
+      <c r="AR48" s="76"/>
+      <c r="AS48" s="76"/>
+      <c r="AT48" s="76"/>
+      <c r="AU48" s="76"/>
+      <c r="AV48" s="76"/>
+      <c r="AW48" s="76"/>
+      <c r="AX48" s="76"/>
+      <c r="AY48" s="76"/>
+      <c r="AZ48" s="76"/>
+      <c r="BA48" s="76"/>
+      <c r="BB48" s="76"/>
+      <c r="BC48" s="76"/>
+      <c r="BD48" s="76"/>
+      <c r="BE48" s="76"/>
+      <c r="BF48" s="76"/>
+      <c r="BG48" s="76"/>
+      <c r="BH48" s="76"/>
+      <c r="BI48" s="76"/>
+      <c r="BJ48" s="76"/>
+      <c r="BK48" s="76"/>
+      <c r="BL48" s="76"/>
+      <c r="BM48" s="76"/>
+      <c r="BN48" s="76"/>
+      <c r="BO48" s="76"/>
+      <c r="BP48" s="76"/>
+      <c r="BQ48" s="76"/>
+      <c r="BR48" s="76"/>
+      <c r="BS48" s="76"/>
+      <c r="BT48" s="76"/>
+      <c r="BU48" s="76"/>
+      <c r="BV48" s="76"/>
+      <c r="BW48" s="76"/>
+      <c r="BX48" s="76"/>
+      <c r="BY48" s="76"/>
+      <c r="BZ48" s="76"/>
+      <c r="CA48" s="76"/>
+      <c r="CB48" s="76"/>
+      <c r="CC48" s="76"/>
+      <c r="CD48" s="76"/>
+      <c r="CE48" s="76"/>
+      <c r="CF48" s="76"/>
+      <c r="CG48" s="76"/>
+      <c r="CH48" s="76"/>
+      <c r="CI48" s="76"/>
+      <c r="CJ48" s="76"/>
+      <c r="CK48" s="76"/>
+      <c r="CL48" s="76"/>
     </row>
     <row r="49" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B49" s="78"/>
-      <c r="C49" s="80" t="s">
+      <c r="B49" s="72"/>
+      <c r="C49" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="D49" s="81"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="91"/>
-      <c r="H49" s="87"/>
-      <c r="I49" s="88">
+      <c r="D49" s="75"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="84"/>
+      <c r="H49" s="81"/>
+      <c r="I49" s="82">
         <v>0</v>
       </c>
-      <c r="J49" s="84"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="82"/>
-      <c r="N49" s="82"/>
-      <c r="O49" s="82"/>
-      <c r="P49" s="82"/>
-      <c r="Q49" s="82"/>
-      <c r="R49" s="82"/>
-      <c r="S49" s="82"/>
-      <c r="T49" s="82"/>
-      <c r="U49" s="82"/>
-      <c r="V49" s="82"/>
-      <c r="W49" s="82"/>
-      <c r="X49" s="82"/>
-      <c r="Y49" s="82"/>
-      <c r="Z49" s="82"/>
-      <c r="AA49" s="82"/>
-      <c r="AB49" s="82"/>
-      <c r="AC49" s="82"/>
-      <c r="AD49" s="82"/>
-      <c r="AE49" s="82"/>
-      <c r="AF49" s="82"/>
-      <c r="AG49" s="82"/>
-      <c r="AH49" s="82"/>
-      <c r="AI49" s="82"/>
-      <c r="AJ49" s="82"/>
-      <c r="AK49" s="82"/>
-      <c r="AL49" s="82"/>
-      <c r="AM49" s="82"/>
-      <c r="AN49" s="82"/>
-      <c r="AO49" s="82"/>
-      <c r="AP49" s="82"/>
-      <c r="AQ49" s="82"/>
-      <c r="AR49" s="82"/>
-      <c r="AS49" s="82"/>
-      <c r="AT49" s="82"/>
-      <c r="AU49" s="82"/>
-      <c r="AV49" s="82"/>
-      <c r="AW49" s="82"/>
-      <c r="AX49" s="82"/>
-      <c r="AY49" s="82"/>
-      <c r="AZ49" s="82"/>
-      <c r="BA49" s="82"/>
-      <c r="BB49" s="82"/>
-      <c r="BC49" s="82"/>
-      <c r="BD49" s="82"/>
-      <c r="BE49" s="82"/>
-      <c r="BF49" s="82"/>
-      <c r="BG49" s="82"/>
-      <c r="BH49" s="82"/>
-      <c r="BI49" s="82"/>
-      <c r="BJ49" s="82"/>
-      <c r="BK49" s="82"/>
-      <c r="BL49" s="82"/>
-      <c r="BM49" s="82"/>
-      <c r="BN49" s="82"/>
-      <c r="BO49" s="82"/>
-      <c r="BP49" s="82"/>
-      <c r="BQ49" s="82"/>
-      <c r="BR49" s="82"/>
-      <c r="BS49" s="82"/>
-      <c r="BT49" s="82"/>
-      <c r="BU49" s="82"/>
-      <c r="BV49" s="82"/>
-      <c r="BW49" s="82"/>
-      <c r="BX49" s="82"/>
-      <c r="BY49" s="82"/>
-      <c r="BZ49" s="82"/>
-      <c r="CA49" s="82"/>
-      <c r="CB49" s="82"/>
-      <c r="CC49" s="82"/>
-      <c r="CD49" s="82"/>
-      <c r="CE49" s="82"/>
-      <c r="CF49" s="82"/>
-      <c r="CG49" s="82"/>
-      <c r="CH49" s="82"/>
-      <c r="CI49" s="82"/>
-      <c r="CJ49" s="82"/>
-      <c r="CK49" s="82"/>
-      <c r="CL49" s="82"/>
+      <c r="J49" s="78"/>
+      <c r="K49" s="76"/>
+      <c r="L49" s="76"/>
+      <c r="M49" s="76"/>
+      <c r="N49" s="76"/>
+      <c r="O49" s="76"/>
+      <c r="P49" s="76"/>
+      <c r="Q49" s="76"/>
+      <c r="R49" s="76"/>
+      <c r="S49" s="76"/>
+      <c r="T49" s="76"/>
+      <c r="U49" s="76"/>
+      <c r="V49" s="76"/>
+      <c r="W49" s="76"/>
+      <c r="X49" s="76"/>
+      <c r="Y49" s="76"/>
+      <c r="Z49" s="76"/>
+      <c r="AA49" s="76"/>
+      <c r="AB49" s="76"/>
+      <c r="AC49" s="76"/>
+      <c r="AD49" s="76"/>
+      <c r="AE49" s="76"/>
+      <c r="AF49" s="76"/>
+      <c r="AG49" s="76"/>
+      <c r="AH49" s="76"/>
+      <c r="AI49" s="76"/>
+      <c r="AJ49" s="76"/>
+      <c r="AK49" s="76"/>
+      <c r="AL49" s="76"/>
+      <c r="AM49" s="76"/>
+      <c r="AN49" s="76"/>
+      <c r="AO49" s="76"/>
+      <c r="AP49" s="76"/>
+      <c r="AQ49" s="76"/>
+      <c r="AR49" s="76"/>
+      <c r="AS49" s="76"/>
+      <c r="AT49" s="76"/>
+      <c r="AU49" s="76"/>
+      <c r="AV49" s="76"/>
+      <c r="AW49" s="76"/>
+      <c r="AX49" s="76"/>
+      <c r="AY49" s="76"/>
+      <c r="AZ49" s="76"/>
+      <c r="BA49" s="76"/>
+      <c r="BB49" s="76"/>
+      <c r="BC49" s="76"/>
+      <c r="BD49" s="76"/>
+      <c r="BE49" s="76"/>
+      <c r="BF49" s="76"/>
+      <c r="BG49" s="76"/>
+      <c r="BH49" s="76"/>
+      <c r="BI49" s="76"/>
+      <c r="BJ49" s="76"/>
+      <c r="BK49" s="76"/>
+      <c r="BL49" s="76"/>
+      <c r="BM49" s="76"/>
+      <c r="BN49" s="76"/>
+      <c r="BO49" s="76"/>
+      <c r="BP49" s="76"/>
+      <c r="BQ49" s="76"/>
+      <c r="BR49" s="76"/>
+      <c r="BS49" s="76"/>
+      <c r="BT49" s="76"/>
+      <c r="BU49" s="76"/>
+      <c r="BV49" s="76"/>
+      <c r="BW49" s="76"/>
+      <c r="BX49" s="76"/>
+      <c r="BY49" s="76"/>
+      <c r="BZ49" s="76"/>
+      <c r="CA49" s="76"/>
+      <c r="CB49" s="76"/>
+      <c r="CC49" s="76"/>
+      <c r="CD49" s="76"/>
+      <c r="CE49" s="76"/>
+      <c r="CF49" s="76"/>
+      <c r="CG49" s="76"/>
+      <c r="CH49" s="76"/>
+      <c r="CI49" s="76"/>
+      <c r="CJ49" s="76"/>
+      <c r="CK49" s="76"/>
+      <c r="CL49" s="76"/>
     </row>
     <row r="50" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
-      <c r="C50" s="75"/>
-      <c r="D50" s="74"/>
-      <c r="E50" s="76"/>
-      <c r="F50" s="76"/>
-      <c r="G50" s="72"/>
-      <c r="H50" s="77"/>
-      <c r="I50" s="73"/>
+      <c r="C50" s="69"/>
+      <c r="D50" s="68"/>
+      <c r="E50" s="70"/>
+      <c r="F50" s="70"/>
+      <c r="G50" s="66"/>
+      <c r="H50" s="71"/>
+      <c r="I50" s="67"/>
       <c r="J50" s="19"/>
       <c r="K50" s="8"/>
       <c r="L50" s="8"/>
@@ -7434,16 +7439,16 @@
       <c r="CK50" s="8"/>
       <c r="CL50" s="8"/>
     </row>
-    <row r="51" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="52"/>
-      <c r="C51" s="53"/>
-      <c r="D51" s="60"/>
-      <c r="E51" s="54"/>
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="54"/>
+    <row r="51" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B51" s="51"/>
+      <c r="C51" s="52"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
+      <c r="G51" s="53"/>
+      <c r="H51" s="53"/>
+      <c r="I51" s="53"/>
+      <c r="J51" s="53"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -7524,18 +7529,18 @@
       <c r="CJ51" s="8"/>
       <c r="CK51" s="8"/>
       <c r="CL51" s="8"/>
-      <c r="DM51" s="51"/>
+      <c r="DM51" s="50"/>
     </row>
-    <row r="52" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="52"/>
-      <c r="C52" s="53"/>
-      <c r="D52" s="60"/>
-      <c r="E52" s="54"/>
-      <c r="F52" s="54"/>
-      <c r="G52" s="54"/>
-      <c r="H52" s="54"/>
-      <c r="I52" s="54"/>
-      <c r="J52" s="54"/>
+    <row r="52" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B52" s="51"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="59"/>
+      <c r="E52" s="53"/>
+      <c r="F52" s="53"/>
+      <c r="G52" s="53"/>
+      <c r="H52" s="53"/>
+      <c r="I52" s="53"/>
+      <c r="J52" s="53"/>
       <c r="K52" s="8"/>
       <c r="L52" s="8"/>
       <c r="M52" s="8"/>
@@ -7616,18 +7621,18 @@
       <c r="CJ52" s="8"/>
       <c r="CK52" s="8"/>
       <c r="CL52" s="8"/>
-      <c r="DM52" s="51"/>
+      <c r="DM52" s="50"/>
     </row>
-    <row r="53" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="52"/>
-      <c r="C53" s="53"/>
-      <c r="D53" s="60"/>
-      <c r="E53" s="54"/>
-      <c r="F53" s="54"/>
-      <c r="G53" s="54"/>
-      <c r="H53" s="54"/>
-      <c r="I53" s="54"/>
-      <c r="J53" s="54"/>
+    <row r="53" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B53" s="51"/>
+      <c r="C53" s="52"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+      <c r="G53" s="53"/>
+      <c r="H53" s="53"/>
+      <c r="I53" s="53"/>
+      <c r="J53" s="53"/>
       <c r="K53" s="8"/>
       <c r="L53" s="8"/>
       <c r="M53" s="8"/>
@@ -7708,507 +7713,518 @@
       <c r="CJ53" s="8"/>
       <c r="CK53" s="8"/>
       <c r="CL53" s="8"/>
-      <c r="DM53" s="51"/>
+      <c r="DM53" s="50"/>
     </row>
-    <row r="54" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="52"/>
-      <c r="C54" s="53"/>
-      <c r="D54" s="60"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="54"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
-      <c r="J54" s="54"/>
-      <c r="K54" s="54"/>
-      <c r="L54" s="54"/>
-      <c r="M54" s="54"/>
-      <c r="N54" s="54"/>
-      <c r="O54" s="54"/>
-      <c r="P54" s="54"/>
-      <c r="Q54" s="54"/>
-      <c r="R54" s="54"/>
-      <c r="S54" s="54"/>
-      <c r="T54" s="54"/>
-      <c r="U54" s="54"/>
-      <c r="V54" s="54"/>
-      <c r="W54" s="54"/>
-      <c r="X54" s="54"/>
-      <c r="Y54" s="54"/>
-      <c r="Z54" s="54"/>
-      <c r="AA54" s="54"/>
-      <c r="AB54" s="54"/>
-      <c r="AC54" s="54"/>
-      <c r="DM54" s="51"/>
+    <row r="54" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B54" s="51"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="59"/>
+      <c r="E54" s="53"/>
+      <c r="F54" s="53"/>
+      <c r="G54" s="53"/>
+      <c r="H54" s="53"/>
+      <c r="I54" s="53"/>
+      <c r="J54" s="53"/>
+      <c r="K54" s="53"/>
+      <c r="L54" s="53"/>
+      <c r="M54" s="53"/>
+      <c r="N54" s="53"/>
+      <c r="O54" s="53"/>
+      <c r="P54" s="53"/>
+      <c r="Q54" s="53"/>
+      <c r="R54" s="53"/>
+      <c r="S54" s="53"/>
+      <c r="T54" s="53"/>
+      <c r="U54" s="53"/>
+      <c r="V54" s="53"/>
+      <c r="W54" s="53"/>
+      <c r="X54" s="53"/>
+      <c r="Y54" s="53"/>
+      <c r="Z54" s="53"/>
+      <c r="AA54" s="53"/>
+      <c r="AB54" s="53"/>
+      <c r="AC54" s="53"/>
+      <c r="DM54" s="50"/>
     </row>
-    <row r="55" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="52"/>
-      <c r="C55" s="53"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="54"/>
-      <c r="F55" s="54"/>
-      <c r="G55" s="54"/>
-      <c r="H55" s="54"/>
-      <c r="I55" s="54"/>
-      <c r="J55" s="54"/>
-      <c r="K55" s="54"/>
-      <c r="L55" s="54"/>
-      <c r="M55" s="54"/>
-      <c r="N55" s="54"/>
-      <c r="O55" s="54"/>
-      <c r="P55" s="54"/>
-      <c r="Q55" s="54"/>
-      <c r="R55" s="54"/>
-      <c r="S55" s="54"/>
-      <c r="T55" s="54"/>
-      <c r="U55" s="54"/>
-      <c r="V55" s="54"/>
-      <c r="W55" s="54"/>
-      <c r="X55" s="54"/>
-      <c r="Y55" s="54"/>
-      <c r="Z55" s="54"/>
-      <c r="AA55" s="54"/>
-      <c r="AB55" s="54"/>
-      <c r="AC55" s="54"/>
-      <c r="DM55" s="51"/>
+    <row r="55" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B55" s="51"/>
+      <c r="C55" s="52"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="53"/>
+      <c r="F55" s="53"/>
+      <c r="G55" s="53"/>
+      <c r="H55" s="53"/>
+      <c r="I55" s="53"/>
+      <c r="J55" s="53"/>
+      <c r="K55" s="53"/>
+      <c r="L55" s="53"/>
+      <c r="M55" s="53"/>
+      <c r="N55" s="53"/>
+      <c r="O55" s="53"/>
+      <c r="P55" s="53"/>
+      <c r="Q55" s="53"/>
+      <c r="R55" s="53"/>
+      <c r="S55" s="53"/>
+      <c r="T55" s="53"/>
+      <c r="U55" s="53"/>
+      <c r="V55" s="53"/>
+      <c r="W55" s="53"/>
+      <c r="X55" s="53"/>
+      <c r="Y55" s="53"/>
+      <c r="Z55" s="53"/>
+      <c r="AA55" s="53"/>
+      <c r="AB55" s="53"/>
+      <c r="AC55" s="53"/>
+      <c r="DM55" s="50"/>
     </row>
-    <row r="56" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="52"/>
-      <c r="C56" s="53"/>
-      <c r="D56" s="60"/>
-      <c r="E56" s="54"/>
-      <c r="F56" s="54"/>
-      <c r="G56" s="54"/>
-      <c r="H56" s="54"/>
-      <c r="I56" s="54"/>
-      <c r="J56" s="54"/>
-      <c r="K56" s="54"/>
-      <c r="L56" s="54"/>
-      <c r="M56" s="54"/>
-      <c r="N56" s="54"/>
-      <c r="O56" s="54"/>
-      <c r="P56" s="54"/>
-      <c r="Q56" s="54"/>
-      <c r="R56" s="54"/>
-      <c r="S56" s="54"/>
-      <c r="T56" s="54"/>
-      <c r="U56" s="54"/>
-      <c r="V56" s="54"/>
-      <c r="W56" s="54"/>
-      <c r="X56" s="54"/>
-      <c r="Y56" s="54"/>
-      <c r="Z56" s="54"/>
-      <c r="AA56" s="54"/>
-      <c r="AB56" s="54"/>
-      <c r="AC56" s="54"/>
-      <c r="DM56" s="51"/>
+    <row r="56" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B56" s="51"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="53"/>
+      <c r="G56" s="53"/>
+      <c r="H56" s="53"/>
+      <c r="I56" s="53"/>
+      <c r="J56" s="53"/>
+      <c r="K56" s="53"/>
+      <c r="L56" s="53"/>
+      <c r="M56" s="53"/>
+      <c r="N56" s="53"/>
+      <c r="O56" s="53"/>
+      <c r="P56" s="53"/>
+      <c r="Q56" s="53"/>
+      <c r="R56" s="53"/>
+      <c r="S56" s="53"/>
+      <c r="T56" s="53"/>
+      <c r="U56" s="53"/>
+      <c r="V56" s="53"/>
+      <c r="W56" s="53"/>
+      <c r="X56" s="53"/>
+      <c r="Y56" s="53"/>
+      <c r="Z56" s="53"/>
+      <c r="AA56" s="53"/>
+      <c r="AB56" s="53"/>
+      <c r="AC56" s="53"/>
+      <c r="DM56" s="50"/>
     </row>
-    <row r="57" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="52"/>
-      <c r="C57" s="53"/>
-      <c r="D57" s="60"/>
-      <c r="E57" s="54"/>
-      <c r="F57" s="54"/>
-      <c r="G57" s="54"/>
-      <c r="H57" s="54"/>
-      <c r="I57" s="54"/>
-      <c r="J57" s="54"/>
-      <c r="K57" s="54"/>
-      <c r="L57" s="54"/>
-      <c r="M57" s="54"/>
-      <c r="N57" s="54"/>
-      <c r="O57" s="54"/>
-      <c r="P57" s="54"/>
-      <c r="Q57" s="54"/>
-      <c r="R57" s="54"/>
-      <c r="S57" s="54"/>
-      <c r="T57" s="54"/>
-      <c r="U57" s="54"/>
-      <c r="V57" s="54"/>
-      <c r="W57" s="54"/>
-      <c r="X57" s="54"/>
-      <c r="Y57" s="54"/>
-      <c r="Z57" s="54"/>
-      <c r="AA57" s="54"/>
-      <c r="AB57" s="54"/>
-      <c r="AC57" s="54"/>
-      <c r="DM57" s="51"/>
+    <row r="57" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B57" s="51"/>
+      <c r="C57" s="52"/>
+      <c r="D57" s="59"/>
+      <c r="E57" s="53"/>
+      <c r="F57" s="53"/>
+      <c r="G57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="53"/>
+      <c r="J57" s="53"/>
+      <c r="K57" s="53"/>
+      <c r="L57" s="53"/>
+      <c r="M57" s="53"/>
+      <c r="N57" s="53"/>
+      <c r="O57" s="53"/>
+      <c r="P57" s="53"/>
+      <c r="Q57" s="53"/>
+      <c r="R57" s="53"/>
+      <c r="S57" s="53"/>
+      <c r="T57" s="53"/>
+      <c r="U57" s="53"/>
+      <c r="V57" s="53"/>
+      <c r="W57" s="53"/>
+      <c r="X57" s="53"/>
+      <c r="Y57" s="53"/>
+      <c r="Z57" s="53"/>
+      <c r="AA57" s="53"/>
+      <c r="AB57" s="53"/>
+      <c r="AC57" s="53"/>
+      <c r="DM57" s="50"/>
     </row>
-    <row r="58" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="52"/>
-      <c r="C58" s="53"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="54"/>
-      <c r="F58" s="54"/>
-      <c r="G58" s="54"/>
-      <c r="H58" s="54"/>
-      <c r="I58" s="54"/>
-      <c r="J58" s="54"/>
-      <c r="K58" s="54"/>
-      <c r="L58" s="54"/>
-      <c r="M58" s="54"/>
-      <c r="N58" s="54"/>
-      <c r="O58" s="54"/>
-      <c r="P58" s="54"/>
-      <c r="Q58" s="54"/>
-      <c r="R58" s="54"/>
-      <c r="S58" s="54"/>
-      <c r="T58" s="54"/>
-      <c r="U58" s="54"/>
-      <c r="V58" s="54"/>
-      <c r="W58" s="54"/>
-      <c r="X58" s="54"/>
-      <c r="Y58" s="54"/>
-      <c r="Z58" s="54"/>
-      <c r="AA58" s="54"/>
-      <c r="AB58" s="54"/>
-      <c r="AC58" s="54"/>
-      <c r="DM58" s="51"/>
+    <row r="58" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B58" s="51"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="53"/>
+      <c r="F58" s="53"/>
+      <c r="G58" s="53"/>
+      <c r="H58" s="53"/>
+      <c r="I58" s="53"/>
+      <c r="J58" s="53"/>
+      <c r="K58" s="53"/>
+      <c r="L58" s="53"/>
+      <c r="M58" s="53"/>
+      <c r="N58" s="53"/>
+      <c r="O58" s="53"/>
+      <c r="P58" s="53"/>
+      <c r="Q58" s="53"/>
+      <c r="R58" s="53"/>
+      <c r="S58" s="53"/>
+      <c r="T58" s="53"/>
+      <c r="U58" s="53"/>
+      <c r="V58" s="53"/>
+      <c r="W58" s="53"/>
+      <c r="X58" s="53"/>
+      <c r="Y58" s="53"/>
+      <c r="Z58" s="53"/>
+      <c r="AA58" s="53"/>
+      <c r="AB58" s="53"/>
+      <c r="AC58" s="53"/>
+      <c r="DM58" s="50"/>
     </row>
-    <row r="59" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="52"/>
-      <c r="C59" s="53"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="54"/>
-      <c r="F59" s="54"/>
-      <c r="G59" s="54"/>
-      <c r="H59" s="54"/>
-      <c r="I59" s="54"/>
-      <c r="J59" s="54"/>
-      <c r="K59" s="54"/>
-      <c r="L59" s="54"/>
-      <c r="M59" s="54"/>
-      <c r="N59" s="54"/>
-      <c r="O59" s="54"/>
-      <c r="P59" s="54"/>
-      <c r="Q59" s="54"/>
-      <c r="R59" s="54"/>
-      <c r="S59" s="54"/>
-      <c r="T59" s="54"/>
-      <c r="U59" s="54"/>
-      <c r="V59" s="54"/>
-      <c r="W59" s="54"/>
-      <c r="X59" s="54"/>
-      <c r="Y59" s="54"/>
-      <c r="Z59" s="54"/>
-      <c r="AA59" s="54"/>
-      <c r="AB59" s="54"/>
-      <c r="AC59" s="54"/>
-      <c r="DM59" s="51"/>
+    <row r="59" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B59" s="51"/>
+      <c r="C59" s="52"/>
+      <c r="D59" s="59"/>
+      <c r="E59" s="53"/>
+      <c r="F59" s="53"/>
+      <c r="G59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="53"/>
+      <c r="J59" s="53"/>
+      <c r="K59" s="53"/>
+      <c r="L59" s="53"/>
+      <c r="M59" s="53"/>
+      <c r="N59" s="53"/>
+      <c r="O59" s="53"/>
+      <c r="P59" s="53"/>
+      <c r="Q59" s="53"/>
+      <c r="R59" s="53"/>
+      <c r="S59" s="53"/>
+      <c r="T59" s="53"/>
+      <c r="U59" s="53"/>
+      <c r="V59" s="53"/>
+      <c r="W59" s="53"/>
+      <c r="X59" s="53"/>
+      <c r="Y59" s="53"/>
+      <c r="Z59" s="53"/>
+      <c r="AA59" s="53"/>
+      <c r="AB59" s="53"/>
+      <c r="AC59" s="53"/>
+      <c r="DM59" s="50"/>
     </row>
-    <row r="60" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="52"/>
-      <c r="C60" s="53"/>
-      <c r="D60" s="60"/>
-      <c r="E60" s="54"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="54"/>
-      <c r="J60" s="54"/>
-      <c r="K60" s="54"/>
-      <c r="L60" s="54"/>
-      <c r="M60" s="54"/>
-      <c r="N60" s="54"/>
-      <c r="O60" s="54"/>
-      <c r="P60" s="54"/>
-      <c r="Q60" s="54"/>
-      <c r="R60" s="54"/>
-      <c r="S60" s="54"/>
-      <c r="T60" s="54"/>
-      <c r="U60" s="54"/>
-      <c r="V60" s="54"/>
-      <c r="W60" s="54"/>
-      <c r="X60" s="54"/>
-      <c r="Y60" s="54"/>
-      <c r="Z60" s="54"/>
-      <c r="AA60" s="54"/>
-      <c r="AB60" s="54"/>
-      <c r="AC60" s="54"/>
-      <c r="DM60" s="51"/>
+    <row r="60" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B60" s="51"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="53"/>
+      <c r="F60" s="53"/>
+      <c r="G60" s="53"/>
+      <c r="H60" s="53"/>
+      <c r="I60" s="53"/>
+      <c r="J60" s="53"/>
+      <c r="K60" s="53"/>
+      <c r="L60" s="53"/>
+      <c r="M60" s="53"/>
+      <c r="N60" s="53"/>
+      <c r="O60" s="53"/>
+      <c r="P60" s="53"/>
+      <c r="Q60" s="53"/>
+      <c r="R60" s="53"/>
+      <c r="S60" s="53"/>
+      <c r="T60" s="53"/>
+      <c r="U60" s="53"/>
+      <c r="V60" s="53"/>
+      <c r="W60" s="53"/>
+      <c r="X60" s="53"/>
+      <c r="Y60" s="53"/>
+      <c r="Z60" s="53"/>
+      <c r="AA60" s="53"/>
+      <c r="AB60" s="53"/>
+      <c r="AC60" s="53"/>
+      <c r="DM60" s="50"/>
     </row>
-    <row r="61" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="52"/>
-      <c r="C61" s="53"/>
-      <c r="D61" s="60"/>
-      <c r="E61" s="54"/>
-      <c r="F61" s="54"/>
-      <c r="G61" s="54"/>
-      <c r="H61" s="54"/>
-      <c r="I61" s="54"/>
-      <c r="J61" s="54"/>
-      <c r="K61" s="54"/>
-      <c r="L61" s="54"/>
-      <c r="M61" s="54"/>
-      <c r="N61" s="54"/>
-      <c r="O61" s="54"/>
-      <c r="P61" s="54"/>
-      <c r="Q61" s="54"/>
-      <c r="R61" s="54"/>
-      <c r="S61" s="54"/>
-      <c r="T61" s="54"/>
-      <c r="U61" s="54"/>
-      <c r="V61" s="54"/>
-      <c r="W61" s="54"/>
-      <c r="X61" s="54"/>
-      <c r="Y61" s="54"/>
-      <c r="Z61" s="54"/>
-      <c r="AA61" s="54"/>
-      <c r="AB61" s="54"/>
-      <c r="AC61" s="54"/>
-      <c r="DM61" s="51"/>
+    <row r="61" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B61" s="51"/>
+      <c r="C61" s="52"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="53"/>
+      <c r="F61" s="53"/>
+      <c r="G61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="53"/>
+      <c r="J61" s="53"/>
+      <c r="K61" s="53"/>
+      <c r="L61" s="53"/>
+      <c r="M61" s="53"/>
+      <c r="N61" s="53"/>
+      <c r="O61" s="53"/>
+      <c r="P61" s="53"/>
+      <c r="Q61" s="53"/>
+      <c r="R61" s="53"/>
+      <c r="S61" s="53"/>
+      <c r="T61" s="53"/>
+      <c r="U61" s="53"/>
+      <c r="V61" s="53"/>
+      <c r="W61" s="53"/>
+      <c r="X61" s="53"/>
+      <c r="Y61" s="53"/>
+      <c r="Z61" s="53"/>
+      <c r="AA61" s="53"/>
+      <c r="AB61" s="53"/>
+      <c r="AC61" s="53"/>
+      <c r="DM61" s="50"/>
     </row>
-    <row r="62" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="52"/>
-      <c r="C62" s="53"/>
-      <c r="D62" s="60"/>
-      <c r="E62" s="54"/>
-      <c r="F62" s="54"/>
-      <c r="G62" s="54"/>
-      <c r="H62" s="54"/>
-      <c r="I62" s="54"/>
-      <c r="J62" s="54"/>
-      <c r="K62" s="54"/>
-      <c r="L62" s="54"/>
-      <c r="M62" s="54"/>
-      <c r="N62" s="54"/>
-      <c r="O62" s="54"/>
-      <c r="P62" s="54"/>
-      <c r="Q62" s="54"/>
-      <c r="R62" s="54"/>
-      <c r="S62" s="54"/>
-      <c r="T62" s="54"/>
-      <c r="U62" s="54"/>
-      <c r="V62" s="54"/>
-      <c r="W62" s="54"/>
-      <c r="X62" s="54"/>
-      <c r="Y62" s="54"/>
-      <c r="Z62" s="54"/>
-      <c r="AA62" s="54"/>
-      <c r="AB62" s="54"/>
-      <c r="AC62" s="54"/>
-      <c r="DM62" s="51"/>
+    <row r="62" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B62" s="51"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="53"/>
+      <c r="F62" s="53"/>
+      <c r="G62" s="53"/>
+      <c r="H62" s="53"/>
+      <c r="I62" s="53"/>
+      <c r="J62" s="53"/>
+      <c r="K62" s="53"/>
+      <c r="L62" s="53"/>
+      <c r="M62" s="53"/>
+      <c r="N62" s="53"/>
+      <c r="O62" s="53"/>
+      <c r="P62" s="53"/>
+      <c r="Q62" s="53"/>
+      <c r="R62" s="53"/>
+      <c r="S62" s="53"/>
+      <c r="T62" s="53"/>
+      <c r="U62" s="53"/>
+      <c r="V62" s="53"/>
+      <c r="W62" s="53"/>
+      <c r="X62" s="53"/>
+      <c r="Y62" s="53"/>
+      <c r="Z62" s="53"/>
+      <c r="AA62" s="53"/>
+      <c r="AB62" s="53"/>
+      <c r="AC62" s="53"/>
+      <c r="DM62" s="50"/>
     </row>
-    <row r="63" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="52"/>
-      <c r="C63" s="53"/>
-      <c r="D63" s="60"/>
-      <c r="E63" s="54"/>
-      <c r="F63" s="54"/>
-      <c r="G63" s="54"/>
-      <c r="H63" s="54"/>
-      <c r="I63" s="54"/>
-      <c r="J63" s="54"/>
-      <c r="K63" s="54"/>
-      <c r="L63" s="54"/>
-      <c r="M63" s="54"/>
-      <c r="N63" s="54"/>
-      <c r="O63" s="54"/>
-      <c r="P63" s="54"/>
-      <c r="Q63" s="54"/>
-      <c r="R63" s="54"/>
-      <c r="S63" s="54"/>
-      <c r="T63" s="54"/>
-      <c r="U63" s="54"/>
-      <c r="V63" s="54"/>
-      <c r="W63" s="54"/>
-      <c r="X63" s="54"/>
-      <c r="Y63" s="54"/>
-      <c r="Z63" s="54"/>
-      <c r="AA63" s="54"/>
-      <c r="AB63" s="54"/>
-      <c r="AC63" s="54"/>
-      <c r="DM63" s="51"/>
+    <row r="63" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B63" s="51"/>
+      <c r="C63" s="52"/>
+      <c r="D63" s="59"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="53"/>
+      <c r="G63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="53"/>
+      <c r="J63" s="53"/>
+      <c r="K63" s="53"/>
+      <c r="L63" s="53"/>
+      <c r="M63" s="53"/>
+      <c r="N63" s="53"/>
+      <c r="O63" s="53"/>
+      <c r="P63" s="53"/>
+      <c r="Q63" s="53"/>
+      <c r="R63" s="53"/>
+      <c r="S63" s="53"/>
+      <c r="T63" s="53"/>
+      <c r="U63" s="53"/>
+      <c r="V63" s="53"/>
+      <c r="W63" s="53"/>
+      <c r="X63" s="53"/>
+      <c r="Y63" s="53"/>
+      <c r="Z63" s="53"/>
+      <c r="AA63" s="53"/>
+      <c r="AB63" s="53"/>
+      <c r="AC63" s="53"/>
+      <c r="DM63" s="50"/>
     </row>
-    <row r="64" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="52"/>
-      <c r="C64" s="53"/>
-      <c r="D64" s="60"/>
-      <c r="E64" s="54"/>
-      <c r="F64" s="54"/>
-      <c r="G64" s="54"/>
-      <c r="H64" s="54"/>
-      <c r="I64" s="54"/>
-      <c r="J64" s="54"/>
-      <c r="K64" s="54"/>
-      <c r="L64" s="54"/>
-      <c r="M64" s="54"/>
-      <c r="N64" s="54"/>
-      <c r="O64" s="54"/>
-      <c r="P64" s="54"/>
-      <c r="Q64" s="54"/>
-      <c r="R64" s="54"/>
-      <c r="S64" s="54"/>
-      <c r="T64" s="54"/>
-      <c r="U64" s="54"/>
-      <c r="V64" s="54"/>
-      <c r="W64" s="54"/>
-      <c r="X64" s="54"/>
-      <c r="Y64" s="54"/>
-      <c r="Z64" s="54"/>
-      <c r="AA64" s="54"/>
-      <c r="AB64" s="54"/>
-      <c r="AC64" s="54"/>
-      <c r="DM64" s="51"/>
+    <row r="64" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B64" s="51"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="53"/>
+      <c r="F64" s="53"/>
+      <c r="G64" s="53"/>
+      <c r="H64" s="53"/>
+      <c r="I64" s="53"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="53"/>
+      <c r="L64" s="53"/>
+      <c r="M64" s="53"/>
+      <c r="N64" s="53"/>
+      <c r="O64" s="53"/>
+      <c r="P64" s="53"/>
+      <c r="Q64" s="53"/>
+      <c r="R64" s="53"/>
+      <c r="S64" s="53"/>
+      <c r="T64" s="53"/>
+      <c r="U64" s="53"/>
+      <c r="V64" s="53"/>
+      <c r="W64" s="53"/>
+      <c r="X64" s="53"/>
+      <c r="Y64" s="53"/>
+      <c r="Z64" s="53"/>
+      <c r="AA64" s="53"/>
+      <c r="AB64" s="53"/>
+      <c r="AC64" s="53"/>
+      <c r="DM64" s="50"/>
     </row>
-    <row r="65" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="52"/>
-      <c r="C65" s="53"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="54"/>
-      <c r="F65" s="54"/>
-      <c r="G65" s="54"/>
-      <c r="H65" s="54"/>
-      <c r="I65" s="54"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="54"/>
-      <c r="L65" s="54"/>
-      <c r="M65" s="54"/>
-      <c r="N65" s="54"/>
-      <c r="O65" s="54"/>
-      <c r="P65" s="54"/>
-      <c r="Q65" s="54"/>
-      <c r="R65" s="54"/>
-      <c r="S65" s="54"/>
-      <c r="T65" s="54"/>
-      <c r="U65" s="54"/>
-      <c r="V65" s="54"/>
-      <c r="W65" s="54"/>
-      <c r="X65" s="54"/>
-      <c r="Y65" s="54"/>
-      <c r="Z65" s="54"/>
-      <c r="AA65" s="54"/>
-      <c r="AB65" s="54"/>
-      <c r="AC65" s="54"/>
-      <c r="DM65" s="51"/>
+    <row r="65" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B65" s="51"/>
+      <c r="C65" s="52"/>
+      <c r="D65" s="59"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="53"/>
+      <c r="G65" s="53"/>
+      <c r="H65" s="53"/>
+      <c r="I65" s="53"/>
+      <c r="J65" s="53"/>
+      <c r="K65" s="53"/>
+      <c r="L65" s="53"/>
+      <c r="M65" s="53"/>
+      <c r="N65" s="53"/>
+      <c r="O65" s="53"/>
+      <c r="P65" s="53"/>
+      <c r="Q65" s="53"/>
+      <c r="R65" s="53"/>
+      <c r="S65" s="53"/>
+      <c r="T65" s="53"/>
+      <c r="U65" s="53"/>
+      <c r="V65" s="53"/>
+      <c r="W65" s="53"/>
+      <c r="X65" s="53"/>
+      <c r="Y65" s="53"/>
+      <c r="Z65" s="53"/>
+      <c r="AA65" s="53"/>
+      <c r="AB65" s="53"/>
+      <c r="AC65" s="53"/>
+      <c r="DM65" s="50"/>
     </row>
-    <row r="66" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="52"/>
-      <c r="C66" s="53"/>
-      <c r="D66" s="60"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="54"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
-      <c r="J66" s="54"/>
-      <c r="K66" s="54"/>
-      <c r="L66" s="54"/>
-      <c r="M66" s="54"/>
-      <c r="N66" s="54"/>
-      <c r="O66" s="54"/>
-      <c r="P66" s="54"/>
-      <c r="Q66" s="54"/>
-      <c r="R66" s="54"/>
-      <c r="S66" s="54"/>
-      <c r="T66" s="54"/>
-      <c r="U66" s="54"/>
-      <c r="V66" s="54"/>
-      <c r="W66" s="54"/>
-      <c r="X66" s="54"/>
-      <c r="Y66" s="54"/>
-      <c r="Z66" s="54"/>
-      <c r="AA66" s="54"/>
-      <c r="AB66" s="54"/>
-      <c r="AC66" s="54"/>
-      <c r="DM66" s="51"/>
+    <row r="66" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B66" s="51"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="53"/>
+      <c r="F66" s="53"/>
+      <c r="G66" s="53"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
+      <c r="J66" s="53"/>
+      <c r="K66" s="53"/>
+      <c r="L66" s="53"/>
+      <c r="M66" s="53"/>
+      <c r="N66" s="53"/>
+      <c r="O66" s="53"/>
+      <c r="P66" s="53"/>
+      <c r="Q66" s="53"/>
+      <c r="R66" s="53"/>
+      <c r="S66" s="53"/>
+      <c r="T66" s="53"/>
+      <c r="U66" s="53"/>
+      <c r="V66" s="53"/>
+      <c r="W66" s="53"/>
+      <c r="X66" s="53"/>
+      <c r="Y66" s="53"/>
+      <c r="Z66" s="53"/>
+      <c r="AA66" s="53"/>
+      <c r="AB66" s="53"/>
+      <c r="AC66" s="53"/>
+      <c r="DM66" s="50"/>
     </row>
-    <row r="67" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="52"/>
-      <c r="C67" s="53"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="54"/>
-      <c r="F67" s="54"/>
-      <c r="G67" s="54"/>
-      <c r="H67" s="54"/>
-      <c r="I67" s="54"/>
-      <c r="J67" s="54"/>
-      <c r="K67" s="54"/>
-      <c r="L67" s="54"/>
-      <c r="M67" s="54"/>
-      <c r="N67" s="54"/>
-      <c r="O67" s="54"/>
-      <c r="P67" s="54"/>
-      <c r="Q67" s="54"/>
-      <c r="R67" s="54"/>
-      <c r="S67" s="54"/>
-      <c r="T67" s="54"/>
-      <c r="U67" s="54"/>
-      <c r="V67" s="54"/>
-      <c r="W67" s="54"/>
-      <c r="X67" s="54"/>
-      <c r="Y67" s="54"/>
-      <c r="Z67" s="54"/>
-      <c r="AA67" s="54"/>
-      <c r="AB67" s="54"/>
-      <c r="AC67" s="54"/>
-      <c r="DM67" s="51"/>
+    <row r="67" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="53"/>
+      <c r="G67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="53"/>
+      <c r="J67" s="53"/>
+      <c r="K67" s="53"/>
+      <c r="L67" s="53"/>
+      <c r="M67" s="53"/>
+      <c r="N67" s="53"/>
+      <c r="O67" s="53"/>
+      <c r="P67" s="53"/>
+      <c r="Q67" s="53"/>
+      <c r="R67" s="53"/>
+      <c r="S67" s="53"/>
+      <c r="T67" s="53"/>
+      <c r="U67" s="53"/>
+      <c r="V67" s="53"/>
+      <c r="W67" s="53"/>
+      <c r="X67" s="53"/>
+      <c r="Y67" s="53"/>
+      <c r="Z67" s="53"/>
+      <c r="AA67" s="53"/>
+      <c r="AB67" s="53"/>
+      <c r="AC67" s="53"/>
+      <c r="DM67" s="50"/>
     </row>
-    <row r="68" spans="2:117" s="50" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="52"/>
-      <c r="C68" s="53"/>
-      <c r="D68" s="60"/>
-      <c r="E68" s="54"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="54"/>
-      <c r="J68" s="54"/>
-      <c r="K68" s="54"/>
-      <c r="L68" s="54"/>
-      <c r="M68" s="54"/>
-      <c r="N68" s="54"/>
-      <c r="O68" s="54"/>
-      <c r="P68" s="54"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="54"/>
-      <c r="U68" s="54"/>
-      <c r="V68" s="54"/>
-      <c r="W68" s="54"/>
-      <c r="X68" s="54"/>
-      <c r="Y68" s="54"/>
-      <c r="Z68" s="54"/>
-      <c r="AA68" s="54"/>
-      <c r="AB68" s="54"/>
-      <c r="AC68" s="54"/>
-      <c r="DM68" s="51"/>
+    <row r="68" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
+      <c r="B68" s="51"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="59"/>
+      <c r="E68" s="53"/>
+      <c r="F68" s="53"/>
+      <c r="G68" s="53"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
+      <c r="J68" s="53"/>
+      <c r="K68" s="53"/>
+      <c r="L68" s="53"/>
+      <c r="M68" s="53"/>
+      <c r="N68" s="53"/>
+      <c r="O68" s="53"/>
+      <c r="P68" s="53"/>
+      <c r="Q68" s="53"/>
+      <c r="R68" s="53"/>
+      <c r="S68" s="53"/>
+      <c r="T68" s="53"/>
+      <c r="U68" s="53"/>
+      <c r="V68" s="53"/>
+      <c r="W68" s="53"/>
+      <c r="X68" s="53"/>
+      <c r="Y68" s="53"/>
+      <c r="Z68" s="53"/>
+      <c r="AA68" s="53"/>
+      <c r="AB68" s="53"/>
+      <c r="AC68" s="53"/>
+      <c r="DM68" s="50"/>
     </row>
-    <row r="69" spans="2:117" s="50" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B69" s="52"/>
-      <c r="C69" s="53"/>
-      <c r="D69" s="60"/>
-      <c r="E69" s="54"/>
-      <c r="F69" s="54"/>
-      <c r="G69" s="54"/>
-      <c r="H69" s="54"/>
-      <c r="I69" s="54"/>
-      <c r="J69" s="54"/>
-      <c r="K69" s="54"/>
-      <c r="L69" s="54"/>
-      <c r="M69" s="54"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="54"/>
-      <c r="P69" s="54"/>
-      <c r="Q69" s="54"/>
-      <c r="R69" s="54"/>
-      <c r="S69" s="54"/>
-      <c r="T69" s="54"/>
-      <c r="U69" s="54"/>
-      <c r="V69" s="54"/>
-      <c r="W69" s="54"/>
-      <c r="X69" s="54"/>
-      <c r="Y69" s="54"/>
-      <c r="Z69" s="54"/>
-      <c r="AA69" s="54"/>
-      <c r="AB69" s="54"/>
-      <c r="AC69" s="54"/>
-      <c r="DM69" s="51"/>
+    <row r="69" spans="2:117" s="49" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="51"/>
+      <c r="C69" s="52"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="53"/>
+      <c r="G69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="53"/>
+      <c r="J69" s="53"/>
+      <c r="K69" s="53"/>
+      <c r="L69" s="53"/>
+      <c r="M69" s="53"/>
+      <c r="N69" s="53"/>
+      <c r="O69" s="53"/>
+      <c r="P69" s="53"/>
+      <c r="Q69" s="53"/>
+      <c r="R69" s="53"/>
+      <c r="S69" s="53"/>
+      <c r="T69" s="53"/>
+      <c r="U69" s="53"/>
+      <c r="V69" s="53"/>
+      <c r="W69" s="53"/>
+      <c r="X69" s="53"/>
+      <c r="Y69" s="53"/>
+      <c r="Z69" s="53"/>
+      <c r="AA69" s="53"/>
+      <c r="AB69" s="53"/>
+      <c r="AC69" s="53"/>
+      <c r="DM69" s="50"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="AO5:AS7"/>
+    <mergeCell ref="BS5:BW7"/>
+    <mergeCell ref="C3:I4"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="K5:O7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
+    <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="CC5:CG7"/>
     <mergeCell ref="CH5:CL7"/>
     <mergeCell ref="BN5:BR7"/>
@@ -8216,27 +8232,16 @@
     <mergeCell ref="BD5:BH7"/>
     <mergeCell ref="BI5:BM7"/>
     <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
-    <mergeCell ref="AJ5:AN7"/>
     <mergeCell ref="AY5:BC7"/>
-    <mergeCell ref="AO5:AS7"/>
-    <mergeCell ref="BS5:BW7"/>
-    <mergeCell ref="C3:I4"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="K5:O7"/>
-    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">
-    <cfRule type="expression" dxfId="28" priority="295">
+    <cfRule type="expression" dxfId="28" priority="296">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11 I14:I50">
-    <cfRule type="dataBar" priority="176">
+  <conditionalFormatting sqref="I10:I11 I21:I50">
+    <cfRule type="dataBar" priority="177">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8250,18 +8255,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H31 H14:H24 H34:H50">
-    <cfRule type="cellIs" dxfId="27" priority="172" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="173" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="173" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="174" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="175" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="dataBar" priority="152">
+    <cfRule type="dataBar" priority="153">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8275,37 +8280,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="24" priority="149" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="150" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="151" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="152" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB53">
-    <cfRule type="expression" dxfId="21" priority="296" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="297" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="297" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="298" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="19" priority="125" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="126" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="127" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="128" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="dataBar" priority="124">
+    <cfRule type="dataBar" priority="125">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8319,68 +8324,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="16" priority="121" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="122" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="123" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="124" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS11:BW12">
-    <cfRule type="expression" dxfId="13" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="68" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BS$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BS$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="69" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BS$8,$F11&gt;=BS$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN11:BR12">
-    <cfRule type="expression" dxfId="11" priority="54" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="55" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BN$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BN$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="56" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BN$8,$F11&gt;=BN$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="9" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="29" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="31" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC11:CG53">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CC$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CC$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CC$8,$F11&gt;=CC$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH11:CL53">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CH$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CH$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CH$8,$F11&gt;=CH$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I20">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{096D8222-718B-44D1-946C-05B97ED1DAA1}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8408,7 +8427,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I11 I14:I50</xm:sqref>
+          <xm:sqref>I10:I11 I21:I50</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D61FC825-F82B-4D9E-ADC8-28E81302A8C5}">
@@ -8440,6 +8459,21 @@
           </x14:cfRule>
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{096D8222-718B-44D1-946C-05B97ED1DAA1}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I14:I20</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0055BB9-81BF-4DC0-8944-6D6C4FAAAA11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFF996-EF46-41B2-A8A9-BEC93CA371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2077,8 +2077,8 @@
   </sheetPr>
   <dimension ref="B1:DM69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5:O7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4964,7 +4964,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="40">
         <f>AVERAGE(I27:I32)</f>
-        <v>0.6166666666666667</v>
+        <v>0.73333333333333339</v>
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="8"/>
@@ -5372,7 +5372,7 @@
       </c>
       <c r="H30" s="37"/>
       <c r="I30" s="41">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J30" s="18"/>
       <c r="K30" s="8"/>
@@ -5470,7 +5470,7 @@
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="8"/>

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BEFF996-EF46-41B2-A8A9-BEC93CA371A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482D5B7-392D-40C8-B331-7634AD4CE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="GeoProbe_V">[1]Values!$G$3:$G$9</definedName>
     <definedName name="prevWBS" localSheetId="0">'POC Planning'!$C1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'POC Planning'!$C$3:$CB$41</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'POC Planning'!$C$3:$CB$42</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'POC Planning'!$6:$8</definedName>
     <definedName name="Team_size">#REF!</definedName>
     <definedName name="totalEst">#REF!</definedName>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>PROJECT START DATE</t>
   </si>
@@ -1270,6 +1270,15 @@
     <xf numFmtId="168" fontId="40" fillId="21" borderId="11" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="44" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1286,15 +1295,6 @@
     </xf>
     <xf numFmtId="0" fontId="42" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="57">
@@ -1356,7 +1356,28 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2075,10 +2096,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:DM69"/>
+  <dimension ref="B1:DM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2192,15 +2213,15 @@
     </row>
     <row r="3" spans="2:90" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="89" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="86"/>
-      <c r="E3" s="86"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
-      <c r="I3" s="86"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
       <c r="J3" s="3"/>
       <c r="K3" s="43"/>
       <c r="L3" s="44" t="s">
@@ -2289,15 +2310,15 @@
     </row>
     <row r="4" spans="2:90" ht="23.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="86"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
-      <c r="I4" s="86"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
       <c r="J4" s="5"/>
-      <c r="K4" s="92"/>
+      <c r="K4" s="87"/>
       <c r="L4" s="44" t="s">
         <v>47</v>
       </c>
@@ -2390,233 +2411,233 @@
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
       <c r="J5" s="15"/>
-      <c r="K5" s="85">
+      <c r="K5" s="88">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>45051</v>
       </c>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85">
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88">
         <f>K5+7</f>
         <v>45058</v>
       </c>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="85"/>
-      <c r="T5" s="85"/>
-      <c r="U5" s="85">
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88">
         <f>P5+7</f>
         <v>45065</v>
       </c>
-      <c r="V5" s="85"/>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85">
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88">
         <f>U5+7</f>
         <v>45072</v>
       </c>
-      <c r="AA5" s="85"/>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85">
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88">
         <f>Z5+7</f>
         <v>45079</v>
       </c>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="85">
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="88"/>
+      <c r="AJ5" s="88">
         <f>AE5+7</f>
         <v>45086</v>
       </c>
-      <c r="AK5" s="85"/>
-      <c r="AL5" s="85"/>
-      <c r="AM5" s="85"/>
-      <c r="AN5" s="85"/>
-      <c r="AO5" s="85">
+      <c r="AK5" s="88"/>
+      <c r="AL5" s="88"/>
+      <c r="AM5" s="88"/>
+      <c r="AN5" s="88"/>
+      <c r="AO5" s="88">
         <f>AJ5+7</f>
         <v>45093</v>
       </c>
-      <c r="AP5" s="85"/>
-      <c r="AQ5" s="85"/>
-      <c r="AR5" s="85"/>
-      <c r="AS5" s="85"/>
-      <c r="AT5" s="85">
+      <c r="AP5" s="88"/>
+      <c r="AQ5" s="88"/>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88">
         <f>AO5+7</f>
         <v>45100</v>
       </c>
-      <c r="AU5" s="85"/>
-      <c r="AV5" s="85"/>
-      <c r="AW5" s="85"/>
-      <c r="AX5" s="85"/>
-      <c r="AY5" s="85">
+      <c r="AU5" s="88"/>
+      <c r="AV5" s="88"/>
+      <c r="AW5" s="88"/>
+      <c r="AX5" s="88"/>
+      <c r="AY5" s="88">
         <f>AT5+7</f>
         <v>45107</v>
       </c>
-      <c r="AZ5" s="85"/>
-      <c r="BA5" s="85"/>
-      <c r="BB5" s="85"/>
-      <c r="BC5" s="85"/>
-      <c r="BD5" s="85">
+      <c r="AZ5" s="88"/>
+      <c r="BA5" s="88"/>
+      <c r="BB5" s="88"/>
+      <c r="BC5" s="88"/>
+      <c r="BD5" s="88">
         <f>AY5+7</f>
         <v>45114</v>
       </c>
-      <c r="BE5" s="85"/>
-      <c r="BF5" s="85"/>
-      <c r="BG5" s="85"/>
-      <c r="BH5" s="85"/>
-      <c r="BI5" s="85">
+      <c r="BE5" s="88"/>
+      <c r="BF5" s="88"/>
+      <c r="BG5" s="88"/>
+      <c r="BH5" s="88"/>
+      <c r="BI5" s="88">
         <f>BD5+7</f>
         <v>45121</v>
       </c>
-      <c r="BJ5" s="85"/>
-      <c r="BK5" s="85"/>
-      <c r="BL5" s="85"/>
-      <c r="BM5" s="85"/>
-      <c r="BN5" s="85">
+      <c r="BJ5" s="88"/>
+      <c r="BK5" s="88"/>
+      <c r="BL5" s="88"/>
+      <c r="BM5" s="88"/>
+      <c r="BN5" s="88">
         <f t="shared" ref="BN5" si="0">BI5+7</f>
         <v>45128</v>
       </c>
-      <c r="BO5" s="85"/>
-      <c r="BP5" s="85"/>
-      <c r="BQ5" s="85"/>
-      <c r="BR5" s="85"/>
-      <c r="BS5" s="85">
+      <c r="BO5" s="88"/>
+      <c r="BP5" s="88"/>
+      <c r="BQ5" s="88"/>
+      <c r="BR5" s="88"/>
+      <c r="BS5" s="88">
         <f t="shared" ref="BS5" si="1">BN5+7</f>
         <v>45135</v>
       </c>
-      <c r="BT5" s="85"/>
-      <c r="BU5" s="85"/>
-      <c r="BV5" s="85"/>
-      <c r="BW5" s="85"/>
-      <c r="BX5" s="85">
+      <c r="BT5" s="88"/>
+      <c r="BU5" s="88"/>
+      <c r="BV5" s="88"/>
+      <c r="BW5" s="88"/>
+      <c r="BX5" s="88">
         <f t="shared" ref="BX5" si="2">BS5+7</f>
         <v>45142</v>
       </c>
-      <c r="BY5" s="85"/>
-      <c r="BZ5" s="85"/>
-      <c r="CA5" s="85"/>
-      <c r="CB5" s="85"/>
-      <c r="CC5" s="85">
+      <c r="BY5" s="88"/>
+      <c r="BZ5" s="88"/>
+      <c r="CA5" s="88"/>
+      <c r="CB5" s="88"/>
+      <c r="CC5" s="88">
         <f t="shared" ref="CC5" si="3">BX5+7</f>
         <v>45149</v>
       </c>
-      <c r="CD5" s="85"/>
-      <c r="CE5" s="85"/>
-      <c r="CF5" s="85"/>
-      <c r="CG5" s="85"/>
-      <c r="CH5" s="85">
+      <c r="CD5" s="88"/>
+      <c r="CE5" s="88"/>
+      <c r="CF5" s="88"/>
+      <c r="CG5" s="88"/>
+      <c r="CH5" s="88">
         <f t="shared" ref="CH5" si="4">CC5+7</f>
         <v>45156</v>
       </c>
-      <c r="CI5" s="85"/>
-      <c r="CJ5" s="85"/>
-      <c r="CK5" s="85"/>
-      <c r="CL5" s="85"/>
+      <c r="CI5" s="88"/>
+      <c r="CJ5" s="88"/>
+      <c r="CK5" s="88"/>
+      <c r="CL5" s="88"/>
     </row>
     <row r="6" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="87">
+      <c r="D6" s="90">
         <v>45047</v>
       </c>
-      <c r="E6" s="87"/>
-      <c r="F6" s="89" t="s">
+      <c r="E6" s="90"/>
+      <c r="F6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="89"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="34">
         <v>1</v>
       </c>
       <c r="I6" s="46"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="85"/>
-      <c r="AI6" s="85"/>
-      <c r="AJ6" s="85"/>
-      <c r="AK6" s="85"/>
-      <c r="AL6" s="85"/>
-      <c r="AM6" s="85"/>
-      <c r="AN6" s="85"/>
-      <c r="AO6" s="85"/>
-      <c r="AP6" s="85"/>
-      <c r="AQ6" s="85"/>
-      <c r="AR6" s="85"/>
-      <c r="AS6" s="85"/>
-      <c r="AT6" s="85"/>
-      <c r="AU6" s="85"/>
-      <c r="AV6" s="85"/>
-      <c r="AW6" s="85"/>
-      <c r="AX6" s="85"/>
-      <c r="AY6" s="85"/>
-      <c r="AZ6" s="85"/>
-      <c r="BA6" s="85"/>
-      <c r="BB6" s="85"/>
-      <c r="BC6" s="85"/>
-      <c r="BD6" s="85"/>
-      <c r="BE6" s="85"/>
-      <c r="BF6" s="85"/>
-      <c r="BG6" s="85"/>
-      <c r="BH6" s="85"/>
-      <c r="BI6" s="85"/>
-      <c r="BJ6" s="85"/>
-      <c r="BK6" s="85"/>
-      <c r="BL6" s="85"/>
-      <c r="BM6" s="85"/>
-      <c r="BN6" s="85"/>
-      <c r="BO6" s="85"/>
-      <c r="BP6" s="85"/>
-      <c r="BQ6" s="85"/>
-      <c r="BR6" s="85"/>
-      <c r="BS6" s="85"/>
-      <c r="BT6" s="85"/>
-      <c r="BU6" s="85"/>
-      <c r="BV6" s="85"/>
-      <c r="BW6" s="85"/>
-      <c r="BX6" s="85"/>
-      <c r="BY6" s="85"/>
-      <c r="BZ6" s="85"/>
-      <c r="CA6" s="85"/>
-      <c r="CB6" s="85"/>
-      <c r="CC6" s="85"/>
-      <c r="CD6" s="85"/>
-      <c r="CE6" s="85"/>
-      <c r="CF6" s="85"/>
-      <c r="CG6" s="85"/>
-      <c r="CH6" s="85"/>
-      <c r="CI6" s="85"/>
-      <c r="CJ6" s="85"/>
-      <c r="CK6" s="85"/>
-      <c r="CL6" s="85"/>
+      <c r="K6" s="91"/>
+      <c r="L6" s="88"/>
+      <c r="M6" s="88"/>
+      <c r="N6" s="88"/>
+      <c r="O6" s="88"/>
+      <c r="P6" s="88"/>
+      <c r="Q6" s="88"/>
+      <c r="R6" s="88"/>
+      <c r="S6" s="88"/>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="88"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="88"/>
+      <c r="Z6" s="88"/>
+      <c r="AA6" s="88"/>
+      <c r="AB6" s="88"/>
+      <c r="AC6" s="88"/>
+      <c r="AD6" s="88"/>
+      <c r="AE6" s="88"/>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="88"/>
+      <c r="AJ6" s="88"/>
+      <c r="AK6" s="88"/>
+      <c r="AL6" s="88"/>
+      <c r="AM6" s="88"/>
+      <c r="AN6" s="88"/>
+      <c r="AO6" s="88"/>
+      <c r="AP6" s="88"/>
+      <c r="AQ6" s="88"/>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="88"/>
+      <c r="AV6" s="88"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="88"/>
+      <c r="AY6" s="88"/>
+      <c r="AZ6" s="88"/>
+      <c r="BA6" s="88"/>
+      <c r="BB6" s="88"/>
+      <c r="BC6" s="88"/>
+      <c r="BD6" s="88"/>
+      <c r="BE6" s="88"/>
+      <c r="BF6" s="88"/>
+      <c r="BG6" s="88"/>
+      <c r="BH6" s="88"/>
+      <c r="BI6" s="88"/>
+      <c r="BJ6" s="88"/>
+      <c r="BK6" s="88"/>
+      <c r="BL6" s="88"/>
+      <c r="BM6" s="88"/>
+      <c r="BN6" s="88"/>
+      <c r="BO6" s="88"/>
+      <c r="BP6" s="88"/>
+      <c r="BQ6" s="88"/>
+      <c r="BR6" s="88"/>
+      <c r="BS6" s="88"/>
+      <c r="BT6" s="88"/>
+      <c r="BU6" s="88"/>
+      <c r="BV6" s="88"/>
+      <c r="BW6" s="88"/>
+      <c r="BX6" s="88"/>
+      <c r="BY6" s="88"/>
+      <c r="BZ6" s="88"/>
+      <c r="CA6" s="88"/>
+      <c r="CB6" s="88"/>
+      <c r="CC6" s="88"/>
+      <c r="CD6" s="88"/>
+      <c r="CE6" s="88"/>
+      <c r="CF6" s="88"/>
+      <c r="CG6" s="88"/>
+      <c r="CH6" s="88"/>
+      <c r="CI6" s="88"/>
+      <c r="CJ6" s="88"/>
+      <c r="CK6" s="88"/>
+      <c r="CL6" s="88"/>
     </row>
     <row r="7" spans="2:90" ht="6.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
@@ -2628,86 +2649,86 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
       <c r="J7" s="23"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="85"/>
-      <c r="S7" s="85"/>
-      <c r="T7" s="85"/>
-      <c r="U7" s="85"/>
-      <c r="V7" s="85"/>
-      <c r="W7" s="85"/>
-      <c r="X7" s="85"/>
-      <c r="Y7" s="85"/>
-      <c r="Z7" s="85"/>
-      <c r="AA7" s="85"/>
-      <c r="AB7" s="85"/>
-      <c r="AC7" s="85"/>
-      <c r="AD7" s="85"/>
-      <c r="AE7" s="85"/>
-      <c r="AF7" s="85"/>
-      <c r="AG7" s="85"/>
-      <c r="AH7" s="85"/>
-      <c r="AI7" s="85"/>
-      <c r="AJ7" s="85"/>
-      <c r="AK7" s="85"/>
-      <c r="AL7" s="85"/>
-      <c r="AM7" s="85"/>
-      <c r="AN7" s="85"/>
-      <c r="AO7" s="85"/>
-      <c r="AP7" s="85"/>
-      <c r="AQ7" s="85"/>
-      <c r="AR7" s="85"/>
-      <c r="AS7" s="85"/>
-      <c r="AT7" s="85"/>
-      <c r="AU7" s="85"/>
-      <c r="AV7" s="85"/>
-      <c r="AW7" s="85"/>
-      <c r="AX7" s="85"/>
-      <c r="AY7" s="85"/>
-      <c r="AZ7" s="85"/>
-      <c r="BA7" s="85"/>
-      <c r="BB7" s="85"/>
-      <c r="BC7" s="85"/>
-      <c r="BD7" s="85"/>
-      <c r="BE7" s="85"/>
-      <c r="BF7" s="85"/>
-      <c r="BG7" s="85"/>
-      <c r="BH7" s="85"/>
-      <c r="BI7" s="85"/>
-      <c r="BJ7" s="85"/>
-      <c r="BK7" s="85"/>
-      <c r="BL7" s="85"/>
-      <c r="BM7" s="85"/>
-      <c r="BN7" s="85"/>
-      <c r="BO7" s="85"/>
-      <c r="BP7" s="85"/>
-      <c r="BQ7" s="85"/>
-      <c r="BR7" s="85"/>
-      <c r="BS7" s="85"/>
-      <c r="BT7" s="85"/>
-      <c r="BU7" s="85"/>
-      <c r="BV7" s="85"/>
-      <c r="BW7" s="85"/>
-      <c r="BX7" s="85"/>
-      <c r="BY7" s="85"/>
-      <c r="BZ7" s="85"/>
-      <c r="CA7" s="85"/>
-      <c r="CB7" s="85"/>
-      <c r="CC7" s="85"/>
-      <c r="CD7" s="85"/>
-      <c r="CE7" s="85"/>
-      <c r="CF7" s="85"/>
-      <c r="CG7" s="85"/>
-      <c r="CH7" s="85"/>
-      <c r="CI7" s="85"/>
-      <c r="CJ7" s="85"/>
-      <c r="CK7" s="85"/>
-      <c r="CL7" s="85"/>
+      <c r="K7" s="91"/>
+      <c r="L7" s="88"/>
+      <c r="M7" s="88"/>
+      <c r="N7" s="88"/>
+      <c r="O7" s="88"/>
+      <c r="P7" s="88"/>
+      <c r="Q7" s="88"/>
+      <c r="R7" s="88"/>
+      <c r="S7" s="88"/>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="88"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="88"/>
+      <c r="Z7" s="88"/>
+      <c r="AA7" s="88"/>
+      <c r="AB7" s="88"/>
+      <c r="AC7" s="88"/>
+      <c r="AD7" s="88"/>
+      <c r="AE7" s="88"/>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="88"/>
+      <c r="AJ7" s="88"/>
+      <c r="AK7" s="88"/>
+      <c r="AL7" s="88"/>
+      <c r="AM7" s="88"/>
+      <c r="AN7" s="88"/>
+      <c r="AO7" s="88"/>
+      <c r="AP7" s="88"/>
+      <c r="AQ7" s="88"/>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="88"/>
+      <c r="AV7" s="88"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="88"/>
+      <c r="AY7" s="88"/>
+      <c r="AZ7" s="88"/>
+      <c r="BA7" s="88"/>
+      <c r="BB7" s="88"/>
+      <c r="BC7" s="88"/>
+      <c r="BD7" s="88"/>
+      <c r="BE7" s="88"/>
+      <c r="BF7" s="88"/>
+      <c r="BG7" s="88"/>
+      <c r="BH7" s="88"/>
+      <c r="BI7" s="88"/>
+      <c r="BJ7" s="88"/>
+      <c r="BK7" s="88"/>
+      <c r="BL7" s="88"/>
+      <c r="BM7" s="88"/>
+      <c r="BN7" s="88"/>
+      <c r="BO7" s="88"/>
+      <c r="BP7" s="88"/>
+      <c r="BQ7" s="88"/>
+      <c r="BR7" s="88"/>
+      <c r="BS7" s="88"/>
+      <c r="BT7" s="88"/>
+      <c r="BU7" s="88"/>
+      <c r="BV7" s="88"/>
+      <c r="BW7" s="88"/>
+      <c r="BX7" s="88"/>
+      <c r="BY7" s="88"/>
+      <c r="BZ7" s="88"/>
+      <c r="CA7" s="88"/>
+      <c r="CB7" s="88"/>
+      <c r="CC7" s="88"/>
+      <c r="CD7" s="88"/>
+      <c r="CE7" s="88"/>
+      <c r="CF7" s="88"/>
+      <c r="CG7" s="88"/>
+      <c r="CH7" s="88"/>
+      <c r="CI7" s="88"/>
+      <c r="CJ7" s="88"/>
+      <c r="CK7" s="88"/>
+      <c r="CL7" s="88"/>
     </row>
     <row r="8" spans="2:90" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="2"/>
@@ -3494,7 +3515,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="40">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.45714285714285713</v>
+        <v>0.46785714285714286</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3800,7 +3821,7 @@
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="82">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="8"/>
@@ -4099,7 +4120,7 @@
       <c r="G17" s="63"/>
       <c r="H17" s="37"/>
       <c r="I17" s="82">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4194,7 +4215,7 @@
       <c r="G18" s="63"/>
       <c r="H18" s="37"/>
       <c r="I18" s="82">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4280,7 +4301,7 @@
     </row>
     <row r="19" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="2"/>
-      <c r="C19" s="91" t="s">
+      <c r="C19" s="86" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="8"/>
@@ -4384,7 +4405,7 @@
       <c r="G20" s="63"/>
       <c r="H20" s="37"/>
       <c r="I20" s="82">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -4470,7 +4491,7 @@
     </row>
     <row r="21" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
-      <c r="C21" s="90" t="s">
+      <c r="C21" s="85" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="65"/>
@@ -4565,7 +4586,7 @@
     </row>
     <row r="22" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
-      <c r="C22" s="90" t="s">
+      <c r="C22" s="85" t="s">
         <v>18</v>
       </c>
       <c r="D22" s="65"/>
@@ -4660,7 +4681,7 @@
     </row>
     <row r="23" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
-      <c r="C23" s="90" t="s">
+      <c r="C23" s="85" t="s">
         <v>19</v>
       </c>
       <c r="D23" s="65"/>
@@ -5659,11 +5680,11 @@
       </c>
       <c r="D33" s="58"/>
       <c r="E33" s="24">
-        <f>IF(MIN(E34:E36)&gt;0,MIN(E34:E36),"")</f>
+        <f>IF(MIN(E34:E37)&gt;0,MIN(E34:E37),"")</f>
         <v>45080</v>
       </c>
       <c r="F33" s="24">
-        <f>IF(MAX(F34:F36)&gt;0,MAX(F34:F36),"")</f>
+        <f>IF(MAX(F34:F36)&gt;0,MAX(F34:F37),"")</f>
         <v>45086</v>
       </c>
       <c r="G33" s="36" t="str">
@@ -5672,8 +5693,8 @@
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="40">
-        <f>AVERAGE(I34:I36)</f>
-        <v>0.33333333333333331</v>
+        <f>AVERAGE(I34:I37)</f>
+        <v>0.25</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="8"/>
@@ -6051,26 +6072,19 @@
     </row>
     <row r="37" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
-      <c r="C37" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="24">
-        <f>IF(MIN(E38:E41)&gt;0,MIN(E38:E41),"")</f>
-        <v>45075</v>
-      </c>
-      <c r="F37" s="24">
-        <f>IF(MAX(F38:F41)&gt;0,MAX(F38:F41),"")</f>
-        <v>45107</v>
-      </c>
-      <c r="G37" s="36" t="str">
-        <f>IF(OR(E37="",F37=""),"",NETWORKDAYS(E37,F37)&amp; " day(s)")</f>
-        <v>25 day(s)</v>
-      </c>
-      <c r="H37" s="36"/>
-      <c r="I37" s="40">
-        <f>AVERAGE(I38:I41)</f>
-        <v>1</v>
+      <c r="C37" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D37" s="8"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="63" t="str">
+        <f t="shared" ref="G37" si="49">IF(OR(E37=0,F37=0),"",NETWORKDAYS(E37,F37)&amp; " day(s)")</f>
+        <v/>
+      </c>
+      <c r="H37" s="37"/>
+      <c r="I37" s="41">
+        <v>0</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="8"/>
@@ -6156,22 +6170,25 @@
     </row>
     <row r="38" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
-      <c r="C38" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="6">
+      <c r="C38" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="24">
+        <f>IF(MIN(E39:E42)&gt;0,MIN(E39:E42),"")</f>
         <v>45075</v>
       </c>
-      <c r="F38" s="6">
-        <v>45079</v>
-      </c>
-      <c r="G38" s="63" t="str">
-        <f t="shared" ref="G38:G40" si="49">IF(OR(E38=0,F38=0),"",NETWORKDAYS(E38,F38)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H38" s="37"/>
-      <c r="I38" s="41">
+      <c r="F38" s="24">
+        <f>IF(MAX(F39:F42)&gt;0,MAX(F39:F42),"")</f>
+        <v>45107</v>
+      </c>
+      <c r="G38" s="36" t="str">
+        <f>IF(OR(E38="",F38=""),"",NETWORKDAYS(E38,F38)&amp; " day(s)")</f>
+        <v>25 day(s)</v>
+      </c>
+      <c r="H38" s="36"/>
+      <c r="I38" s="40">
+        <f>AVERAGE(I39:I42)</f>
         <v>1</v>
       </c>
       <c r="J38" s="18"/>
@@ -6259,17 +6276,17 @@
     <row r="39" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="6">
-        <v>45089</v>
+        <v>45075</v>
       </c>
       <c r="F39" s="6">
-        <v>45093</v>
+        <v>45079</v>
       </c>
       <c r="G39" s="63" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="G39:G41" si="50">IF(OR(E39=0,F39=0),"",NETWORKDAYS(E39,F39)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H39" s="37"/>
@@ -6361,17 +6378,17 @@
     <row r="40" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="6">
-        <v>45101</v>
+        <v>45089</v>
       </c>
       <c r="F40" s="6">
-        <v>45107</v>
+        <v>45093</v>
       </c>
       <c r="G40" s="63" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>5 day(s)</v>
       </c>
       <c r="H40" s="37"/>
@@ -6463,12 +6480,19 @@
     <row r="41" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="6"/>
-      <c r="F41" s="6"/>
-      <c r="G41" s="63"/>
+      <c r="E41" s="6">
+        <v>45101</v>
+      </c>
+      <c r="F41" s="6">
+        <v>45107</v>
+      </c>
+      <c r="G41" s="63" t="str">
+        <f t="shared" si="50"/>
+        <v>5 day(s)</v>
+      </c>
       <c r="H41" s="37"/>
       <c r="I41" s="41">
         <v>1</v>
@@ -6557,26 +6581,16 @@
     </row>
     <row r="42" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
-      <c r="C42" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="D42" s="58"/>
-      <c r="E42" s="24">
-        <f>IF(MIN(E43:E45)&gt;0,MIN(E43:E45),"")</f>
-        <v>45075</v>
-      </c>
-      <c r="F42" s="24">
-        <f>IF(MAX(F43:F45)&gt;0,MAX(F43:F45),"")</f>
-        <v>45079</v>
-      </c>
-      <c r="G42" s="36" t="str">
-        <f>IF(OR(E42="",F42=""),"",NETWORKDAYS(E42,F42)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H42" s="36"/>
-      <c r="I42" s="40">
-        <f>AVERAGE(I43:I45)</f>
-        <v>0.33333333333333331</v>
+      <c r="C42" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="41">
+        <v>1</v>
       </c>
       <c r="J42" s="18"/>
       <c r="K42" s="8"/>
@@ -6660,27 +6674,30 @@
       <c r="CK42" s="8"/>
       <c r="CL42" s="8"/>
     </row>
-    <row r="43" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:90" ht="16.8" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
-      <c r="C43" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6">
+      <c r="C43" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="24">
+        <f>IF(MIN(E44:E46)&gt;0,MIN(E44:E46),"")</f>
         <v>45075</v>
       </c>
-      <c r="F43" s="6">
+      <c r="F43" s="24">
+        <f>IF(MAX(F44:F46)&gt;0,MAX(F44:F46),"")</f>
         <v>45079</v>
       </c>
-      <c r="G43" s="63" t="str">
-        <f t="shared" ref="G43" si="50">IF(OR(E43=0,F43=0),"",NETWORKDAYS(E43,F43)&amp; " day(s)")</f>
+      <c r="G43" s="36" t="str">
+        <f>IF(OR(E43="",F43=""),"",NETWORKDAYS(E43,F43)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="41">
-        <v>1</v>
-      </c>
-      <c r="J43" s="19"/>
+      <c r="H43" s="36"/>
+      <c r="I43" s="40">
+        <f>AVERAGE(I44:I46)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J43" s="18"/>
       <c r="K43" s="8"/>
       <c r="L43" s="8"/>
       <c r="M43" s="8"/>
@@ -6765,18 +6782,22 @@
     <row r="44" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D44" s="8"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
+      <c r="E44" s="6">
+        <v>45075</v>
+      </c>
+      <c r="F44" s="6">
+        <v>45079</v>
+      </c>
       <c r="G44" s="63" t="str">
-        <f t="shared" ref="G44:G45" si="51">IF(OR(E44=0,F44=0),"",NETWORKDAYS(E44,F44)&amp; " day(s)")</f>
-        <v/>
+        <f t="shared" ref="G44" si="51">IF(OR(E44=0,F44=0),"",NETWORKDAYS(E44,F44)&amp; " day(s)")</f>
+        <v>5 day(s)</v>
       </c>
       <c r="H44" s="37"/>
       <c r="I44" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" s="19"/>
       <c r="K44" s="8"/>
@@ -6863,13 +6884,13 @@
     <row r="45" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="7" t="s">
-        <v>27</v>
+        <v>43</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="6"/>
       <c r="F45" s="6"/>
       <c r="G45" s="63" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="G45:G46" si="52">IF(OR(E45=0,F45=0),"",NETWORKDAYS(E45,F45)&amp; " day(s)")</f>
         <v/>
       </c>
       <c r="H45" s="37"/>
@@ -6959,121 +6980,124 @@
       <c r="CL45" s="8"/>
     </row>
     <row r="46" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="72"/>
-      <c r="C46" s="79" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="83"/>
-      <c r="E46" s="24" t="str">
-        <f>IF(MIN(E47:E49)&gt;0,MIN(E47:E49),"")</f>
+      <c r="B46" s="2"/>
+      <c r="C46" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="63" t="str">
+        <f t="shared" si="52"/>
         <v/>
       </c>
-      <c r="F46" s="24" t="str">
-        <f>IF(MAX(F47:F49)&gt;0,MAX(F47:F49),"")</f>
-        <v/>
-      </c>
-      <c r="G46" s="36" t="str">
-        <f>IF(OR(E46="",F46=""),"",NETWORKDAYS(E46,F46)&amp; " day(s)")</f>
-        <v/>
-      </c>
-      <c r="H46" s="80"/>
-      <c r="I46" s="40">
-        <f>AVERAGE(I47:I49)</f>
+      <c r="H46" s="37"/>
+      <c r="I46" s="41">
         <v>0</v>
       </c>
-      <c r="J46" s="77"/>
-      <c r="K46" s="75"/>
-      <c r="L46" s="75"/>
-      <c r="M46" s="75"/>
-      <c r="N46" s="75"/>
-      <c r="O46" s="75"/>
-      <c r="P46" s="75"/>
-      <c r="Q46" s="75"/>
-      <c r="R46" s="75"/>
-      <c r="S46" s="75"/>
-      <c r="T46" s="75"/>
-      <c r="U46" s="75"/>
-      <c r="V46" s="75"/>
-      <c r="W46" s="75"/>
-      <c r="X46" s="75"/>
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="75"/>
-      <c r="AA46" s="75"/>
-      <c r="AB46" s="75"/>
-      <c r="AC46" s="75"/>
-      <c r="AD46" s="75"/>
-      <c r="AE46" s="75"/>
-      <c r="AF46" s="75"/>
-      <c r="AG46" s="75"/>
-      <c r="AH46" s="75"/>
-      <c r="AI46" s="75"/>
-      <c r="AJ46" s="75"/>
-      <c r="AK46" s="75"/>
-      <c r="AL46" s="75"/>
-      <c r="AM46" s="75"/>
-      <c r="AN46" s="75"/>
-      <c r="AO46" s="75"/>
-      <c r="AP46" s="75"/>
-      <c r="AQ46" s="75"/>
-      <c r="AR46" s="75"/>
-      <c r="AS46" s="75"/>
-      <c r="AT46" s="75"/>
-      <c r="AU46" s="75"/>
-      <c r="AV46" s="75"/>
-      <c r="AW46" s="75"/>
-      <c r="AX46" s="75"/>
-      <c r="AY46" s="75"/>
-      <c r="AZ46" s="75"/>
-      <c r="BA46" s="75"/>
-      <c r="BB46" s="75"/>
-      <c r="BC46" s="75"/>
-      <c r="BD46" s="75"/>
-      <c r="BE46" s="75"/>
-      <c r="BF46" s="75"/>
-      <c r="BG46" s="75"/>
-      <c r="BH46" s="75"/>
-      <c r="BI46" s="75"/>
-      <c r="BJ46" s="75"/>
-      <c r="BK46" s="75"/>
-      <c r="BL46" s="75"/>
-      <c r="BM46" s="75"/>
-      <c r="BN46" s="75"/>
-      <c r="BO46" s="75"/>
-      <c r="BP46" s="75"/>
-      <c r="BQ46" s="75"/>
-      <c r="BR46" s="75"/>
-      <c r="BS46" s="75"/>
-      <c r="BT46" s="75"/>
-      <c r="BU46" s="75"/>
-      <c r="BV46" s="75"/>
-      <c r="BW46" s="75"/>
-      <c r="BX46" s="75"/>
-      <c r="BY46" s="75"/>
-      <c r="BZ46" s="75"/>
-      <c r="CA46" s="75"/>
-      <c r="CB46" s="75"/>
-      <c r="CC46" s="75"/>
-      <c r="CD46" s="75"/>
-      <c r="CE46" s="75"/>
-      <c r="CF46" s="75"/>
-      <c r="CG46" s="75"/>
-      <c r="CH46" s="75"/>
-      <c r="CI46" s="75"/>
-      <c r="CJ46" s="75"/>
-      <c r="CK46" s="75"/>
-      <c r="CL46" s="75"/>
+      <c r="J46" s="19"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="U46" s="8"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="8"/>
+      <c r="X46" s="8"/>
+      <c r="Y46" s="8"/>
+      <c r="Z46" s="8"/>
+      <c r="AA46" s="8"/>
+      <c r="AB46" s="8"/>
+      <c r="AC46" s="8"/>
+      <c r="AD46" s="8"/>
+      <c r="AE46" s="8"/>
+      <c r="AF46" s="8"/>
+      <c r="AG46" s="8"/>
+      <c r="AH46" s="8"/>
+      <c r="AI46" s="8"/>
+      <c r="AJ46" s="8"/>
+      <c r="AK46" s="8"/>
+      <c r="AL46" s="8"/>
+      <c r="AM46" s="8"/>
+      <c r="AN46" s="8"/>
+      <c r="AO46" s="8"/>
+      <c r="AP46" s="8"/>
+      <c r="AQ46" s="8"/>
+      <c r="AR46" s="8"/>
+      <c r="AS46" s="8"/>
+      <c r="AT46" s="8"/>
+      <c r="AU46" s="8"/>
+      <c r="AV46" s="8"/>
+      <c r="AW46" s="8"/>
+      <c r="AX46" s="8"/>
+      <c r="AY46" s="8"/>
+      <c r="AZ46" s="8"/>
+      <c r="BA46" s="8"/>
+      <c r="BB46" s="8"/>
+      <c r="BC46" s="8"/>
+      <c r="BD46" s="8"/>
+      <c r="BE46" s="8"/>
+      <c r="BF46" s="8"/>
+      <c r="BG46" s="8"/>
+      <c r="BH46" s="8"/>
+      <c r="BI46" s="8"/>
+      <c r="BJ46" s="8"/>
+      <c r="BK46" s="8"/>
+      <c r="BL46" s="8"/>
+      <c r="BM46" s="8"/>
+      <c r="BN46" s="8"/>
+      <c r="BO46" s="8"/>
+      <c r="BP46" s="8"/>
+      <c r="BQ46" s="8"/>
+      <c r="BR46" s="8"/>
+      <c r="BS46" s="8"/>
+      <c r="BT46" s="8"/>
+      <c r="BU46" s="8"/>
+      <c r="BV46" s="8"/>
+      <c r="BW46" s="8"/>
+      <c r="BX46" s="8"/>
+      <c r="BY46" s="8"/>
+      <c r="BZ46" s="8"/>
+      <c r="CA46" s="8"/>
+      <c r="CB46" s="8"/>
+      <c r="CC46" s="8"/>
+      <c r="CD46" s="8"/>
+      <c r="CE46" s="8"/>
+      <c r="CF46" s="8"/>
+      <c r="CG46" s="8"/>
+      <c r="CH46" s="8"/>
+      <c r="CI46" s="8"/>
+      <c r="CJ46" s="8"/>
+      <c r="CK46" s="8"/>
+      <c r="CL46" s="8"/>
     </row>
     <row r="47" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B47" s="72"/>
-      <c r="C47" s="74" t="s">
-        <v>30</v>
-      </c>
-      <c r="D47" s="75"/>
-      <c r="E47" s="73"/>
-      <c r="F47" s="73"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="82">
+      <c r="C47" s="79" t="s">
+        <v>29</v>
+      </c>
+      <c r="D47" s="83"/>
+      <c r="E47" s="24" t="str">
+        <f>IF(MIN(E48:E50)&gt;0,MIN(E48:E50),"")</f>
+        <v/>
+      </c>
+      <c r="F47" s="24" t="str">
+        <f>IF(MAX(F48:F50)&gt;0,MAX(F48:F50),"")</f>
+        <v/>
+      </c>
+      <c r="G47" s="36" t="str">
+        <f>IF(OR(E47="",F47=""),"",NETWORKDAYS(E47,F47)&amp; " day(s)")</f>
+        <v/>
+      </c>
+      <c r="H47" s="80"/>
+      <c r="I47" s="40">
+        <f>AVERAGE(I48:I50)</f>
         <v>0</v>
       </c>
       <c r="J47" s="77"/>
@@ -7161,7 +7185,7 @@
     <row r="48" spans="2:90" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B48" s="72"/>
       <c r="C48" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D48" s="75"/>
       <c r="E48" s="73"/>
@@ -7171,92 +7195,92 @@
       <c r="I48" s="82">
         <v>0</v>
       </c>
-      <c r="J48" s="78"/>
-      <c r="K48" s="76"/>
-      <c r="L48" s="76"/>
-      <c r="M48" s="76"/>
-      <c r="N48" s="76"/>
-      <c r="O48" s="76"/>
-      <c r="P48" s="76"/>
-      <c r="Q48" s="76"/>
-      <c r="R48" s="76"/>
-      <c r="S48" s="76"/>
-      <c r="T48" s="76"/>
-      <c r="U48" s="76"/>
-      <c r="V48" s="76"/>
-      <c r="W48" s="76"/>
-      <c r="X48" s="76"/>
-      <c r="Y48" s="76"/>
-      <c r="Z48" s="76"/>
-      <c r="AA48" s="76"/>
-      <c r="AB48" s="76"/>
-      <c r="AC48" s="76"/>
-      <c r="AD48" s="76"/>
-      <c r="AE48" s="76"/>
-      <c r="AF48" s="76"/>
-      <c r="AG48" s="76"/>
-      <c r="AH48" s="76"/>
-      <c r="AI48" s="76"/>
-      <c r="AJ48" s="76"/>
-      <c r="AK48" s="76"/>
-      <c r="AL48" s="76"/>
-      <c r="AM48" s="76"/>
-      <c r="AN48" s="76"/>
-      <c r="AO48" s="76"/>
-      <c r="AP48" s="76"/>
-      <c r="AQ48" s="76"/>
-      <c r="AR48" s="76"/>
-      <c r="AS48" s="76"/>
-      <c r="AT48" s="76"/>
-      <c r="AU48" s="76"/>
-      <c r="AV48" s="76"/>
-      <c r="AW48" s="76"/>
-      <c r="AX48" s="76"/>
-      <c r="AY48" s="76"/>
-      <c r="AZ48" s="76"/>
-      <c r="BA48" s="76"/>
-      <c r="BB48" s="76"/>
-      <c r="BC48" s="76"/>
-      <c r="BD48" s="76"/>
-      <c r="BE48" s="76"/>
-      <c r="BF48" s="76"/>
-      <c r="BG48" s="76"/>
-      <c r="BH48" s="76"/>
-      <c r="BI48" s="76"/>
-      <c r="BJ48" s="76"/>
-      <c r="BK48" s="76"/>
-      <c r="BL48" s="76"/>
-      <c r="BM48" s="76"/>
-      <c r="BN48" s="76"/>
-      <c r="BO48" s="76"/>
-      <c r="BP48" s="76"/>
-      <c r="BQ48" s="76"/>
-      <c r="BR48" s="76"/>
-      <c r="BS48" s="76"/>
-      <c r="BT48" s="76"/>
-      <c r="BU48" s="76"/>
-      <c r="BV48" s="76"/>
-      <c r="BW48" s="76"/>
-      <c r="BX48" s="76"/>
-      <c r="BY48" s="76"/>
-      <c r="BZ48" s="76"/>
-      <c r="CA48" s="76"/>
-      <c r="CB48" s="76"/>
-      <c r="CC48" s="76"/>
-      <c r="CD48" s="76"/>
-      <c r="CE48" s="76"/>
-      <c r="CF48" s="76"/>
-      <c r="CG48" s="76"/>
-      <c r="CH48" s="76"/>
-      <c r="CI48" s="76"/>
-      <c r="CJ48" s="76"/>
-      <c r="CK48" s="76"/>
-      <c r="CL48" s="76"/>
+      <c r="J48" s="77"/>
+      <c r="K48" s="75"/>
+      <c r="L48" s="75"/>
+      <c r="M48" s="75"/>
+      <c r="N48" s="75"/>
+      <c r="O48" s="75"/>
+      <c r="P48" s="75"/>
+      <c r="Q48" s="75"/>
+      <c r="R48" s="75"/>
+      <c r="S48" s="75"/>
+      <c r="T48" s="75"/>
+      <c r="U48" s="75"/>
+      <c r="V48" s="75"/>
+      <c r="W48" s="75"/>
+      <c r="X48" s="75"/>
+      <c r="Y48" s="75"/>
+      <c r="Z48" s="75"/>
+      <c r="AA48" s="75"/>
+      <c r="AB48" s="75"/>
+      <c r="AC48" s="75"/>
+      <c r="AD48" s="75"/>
+      <c r="AE48" s="75"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="75"/>
+      <c r="AL48" s="75"/>
+      <c r="AM48" s="75"/>
+      <c r="AN48" s="75"/>
+      <c r="AO48" s="75"/>
+      <c r="AP48" s="75"/>
+      <c r="AQ48" s="75"/>
+      <c r="AR48" s="75"/>
+      <c r="AS48" s="75"/>
+      <c r="AT48" s="75"/>
+      <c r="AU48" s="75"/>
+      <c r="AV48" s="75"/>
+      <c r="AW48" s="75"/>
+      <c r="AX48" s="75"/>
+      <c r="AY48" s="75"/>
+      <c r="AZ48" s="75"/>
+      <c r="BA48" s="75"/>
+      <c r="BB48" s="75"/>
+      <c r="BC48" s="75"/>
+      <c r="BD48" s="75"/>
+      <c r="BE48" s="75"/>
+      <c r="BF48" s="75"/>
+      <c r="BG48" s="75"/>
+      <c r="BH48" s="75"/>
+      <c r="BI48" s="75"/>
+      <c r="BJ48" s="75"/>
+      <c r="BK48" s="75"/>
+      <c r="BL48" s="75"/>
+      <c r="BM48" s="75"/>
+      <c r="BN48" s="75"/>
+      <c r="BO48" s="75"/>
+      <c r="BP48" s="75"/>
+      <c r="BQ48" s="75"/>
+      <c r="BR48" s="75"/>
+      <c r="BS48" s="75"/>
+      <c r="BT48" s="75"/>
+      <c r="BU48" s="75"/>
+      <c r="BV48" s="75"/>
+      <c r="BW48" s="75"/>
+      <c r="BX48" s="75"/>
+      <c r="BY48" s="75"/>
+      <c r="BZ48" s="75"/>
+      <c r="CA48" s="75"/>
+      <c r="CB48" s="75"/>
+      <c r="CC48" s="75"/>
+      <c r="CD48" s="75"/>
+      <c r="CE48" s="75"/>
+      <c r="CF48" s="75"/>
+      <c r="CG48" s="75"/>
+      <c r="CH48" s="75"/>
+      <c r="CI48" s="75"/>
+      <c r="CJ48" s="75"/>
+      <c r="CK48" s="75"/>
+      <c r="CL48" s="75"/>
     </row>
     <row r="49" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B49" s="72"/>
       <c r="C49" s="74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D49" s="75"/>
       <c r="E49" s="73"/>
@@ -7349,106 +7373,110 @@
       <c r="CL49" s="76"/>
     </row>
     <row r="50" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="69"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="70"/>
-      <c r="F50" s="70"/>
-      <c r="G50" s="66"/>
-      <c r="H50" s="71"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="19"/>
-      <c r="K50" s="8"/>
-      <c r="L50" s="8"/>
-      <c r="M50" s="8"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="8"/>
-      <c r="P50" s="8"/>
-      <c r="Q50" s="8"/>
-      <c r="R50" s="8"/>
-      <c r="S50" s="8"/>
-      <c r="T50" s="8"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="8"/>
-      <c r="X50" s="8"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
-      <c r="AA50" s="8"/>
-      <c r="AB50" s="8"/>
-      <c r="AC50" s="8"/>
-      <c r="AD50" s="8"/>
-      <c r="AE50" s="8"/>
-      <c r="AF50" s="8"/>
-      <c r="AG50" s="8"/>
-      <c r="AH50" s="8"/>
-      <c r="AI50" s="8"/>
-      <c r="AJ50" s="8"/>
-      <c r="AK50" s="8"/>
-      <c r="AL50" s="8"/>
-      <c r="AM50" s="8"/>
-      <c r="AN50" s="8"/>
-      <c r="AO50" s="8"/>
-      <c r="AP50" s="8"/>
-      <c r="AQ50" s="8"/>
-      <c r="AR50" s="8"/>
-      <c r="AS50" s="8"/>
-      <c r="AT50" s="8"/>
-      <c r="AU50" s="8"/>
-      <c r="AV50" s="8"/>
-      <c r="AW50" s="8"/>
-      <c r="AX50" s="8"/>
-      <c r="AY50" s="8"/>
-      <c r="AZ50" s="8"/>
-      <c r="BA50" s="8"/>
-      <c r="BB50" s="8"/>
-      <c r="BC50" s="8"/>
-      <c r="BD50" s="8"/>
-      <c r="BE50" s="8"/>
-      <c r="BF50" s="8"/>
-      <c r="BG50" s="8"/>
-      <c r="BH50" s="8"/>
-      <c r="BI50" s="8"/>
-      <c r="BJ50" s="8"/>
-      <c r="BK50" s="8"/>
-      <c r="BL50" s="8"/>
-      <c r="BM50" s="8"/>
-      <c r="BN50" s="8"/>
-      <c r="BO50" s="8"/>
-      <c r="BP50" s="8"/>
-      <c r="BQ50" s="8"/>
-      <c r="BR50" s="8"/>
-      <c r="BS50" s="8"/>
-      <c r="BT50" s="8"/>
-      <c r="BU50" s="8"/>
-      <c r="BV50" s="8"/>
-      <c r="BW50" s="8"/>
-      <c r="BX50" s="8"/>
-      <c r="BY50" s="8"/>
-      <c r="BZ50" s="8"/>
-      <c r="CA50" s="8"/>
-      <c r="CB50" s="8"/>
-      <c r="CC50" s="8"/>
-      <c r="CD50" s="8"/>
-      <c r="CE50" s="8"/>
-      <c r="CF50" s="8"/>
-      <c r="CG50" s="8"/>
-      <c r="CH50" s="8"/>
-      <c r="CI50" s="8"/>
-      <c r="CJ50" s="8"/>
-      <c r="CK50" s="8"/>
-      <c r="CL50" s="8"/>
+      <c r="B50" s="72"/>
+      <c r="C50" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="D50" s="75"/>
+      <c r="E50" s="73"/>
+      <c r="F50" s="73"/>
+      <c r="G50" s="84"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="82">
+        <v>0</v>
+      </c>
+      <c r="J50" s="78"/>
+      <c r="K50" s="76"/>
+      <c r="L50" s="76"/>
+      <c r="M50" s="76"/>
+      <c r="N50" s="76"/>
+      <c r="O50" s="76"/>
+      <c r="P50" s="76"/>
+      <c r="Q50" s="76"/>
+      <c r="R50" s="76"/>
+      <c r="S50" s="76"/>
+      <c r="T50" s="76"/>
+      <c r="U50" s="76"/>
+      <c r="V50" s="76"/>
+      <c r="W50" s="76"/>
+      <c r="X50" s="76"/>
+      <c r="Y50" s="76"/>
+      <c r="Z50" s="76"/>
+      <c r="AA50" s="76"/>
+      <c r="AB50" s="76"/>
+      <c r="AC50" s="76"/>
+      <c r="AD50" s="76"/>
+      <c r="AE50" s="76"/>
+      <c r="AF50" s="76"/>
+      <c r="AG50" s="76"/>
+      <c r="AH50" s="76"/>
+      <c r="AI50" s="76"/>
+      <c r="AJ50" s="76"/>
+      <c r="AK50" s="76"/>
+      <c r="AL50" s="76"/>
+      <c r="AM50" s="76"/>
+      <c r="AN50" s="76"/>
+      <c r="AO50" s="76"/>
+      <c r="AP50" s="76"/>
+      <c r="AQ50" s="76"/>
+      <c r="AR50" s="76"/>
+      <c r="AS50" s="76"/>
+      <c r="AT50" s="76"/>
+      <c r="AU50" s="76"/>
+      <c r="AV50" s="76"/>
+      <c r="AW50" s="76"/>
+      <c r="AX50" s="76"/>
+      <c r="AY50" s="76"/>
+      <c r="AZ50" s="76"/>
+      <c r="BA50" s="76"/>
+      <c r="BB50" s="76"/>
+      <c r="BC50" s="76"/>
+      <c r="BD50" s="76"/>
+      <c r="BE50" s="76"/>
+      <c r="BF50" s="76"/>
+      <c r="BG50" s="76"/>
+      <c r="BH50" s="76"/>
+      <c r="BI50" s="76"/>
+      <c r="BJ50" s="76"/>
+      <c r="BK50" s="76"/>
+      <c r="BL50" s="76"/>
+      <c r="BM50" s="76"/>
+      <c r="BN50" s="76"/>
+      <c r="BO50" s="76"/>
+      <c r="BP50" s="76"/>
+      <c r="BQ50" s="76"/>
+      <c r="BR50" s="76"/>
+      <c r="BS50" s="76"/>
+      <c r="BT50" s="76"/>
+      <c r="BU50" s="76"/>
+      <c r="BV50" s="76"/>
+      <c r="BW50" s="76"/>
+      <c r="BX50" s="76"/>
+      <c r="BY50" s="76"/>
+      <c r="BZ50" s="76"/>
+      <c r="CA50" s="76"/>
+      <c r="CB50" s="76"/>
+      <c r="CC50" s="76"/>
+      <c r="CD50" s="76"/>
+      <c r="CE50" s="76"/>
+      <c r="CF50" s="76"/>
+      <c r="CG50" s="76"/>
+      <c r="CH50" s="76"/>
+      <c r="CI50" s="76"/>
+      <c r="CJ50" s="76"/>
+      <c r="CK50" s="76"/>
+      <c r="CL50" s="76"/>
     </row>
-    <row r="51" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="51"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="59"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
+    <row r="51" spans="2:117" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="2"/>
+      <c r="C51" s="69"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="66"/>
+      <c r="H51" s="71"/>
+      <c r="I51" s="67"/>
+      <c r="J51" s="19"/>
       <c r="K51" s="8"/>
       <c r="L51" s="8"/>
       <c r="M51" s="8"/>
@@ -7529,7 +7557,6 @@
       <c r="CJ51" s="8"/>
       <c r="CK51" s="8"/>
       <c r="CL51" s="8"/>
-      <c r="DM51" s="50"/>
     </row>
     <row r="52" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B52" s="51"/>
@@ -7725,25 +7752,86 @@
       <c r="H54" s="53"/>
       <c r="I54" s="53"/>
       <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
-      <c r="Y54" s="53"/>
-      <c r="Z54" s="53"/>
-      <c r="AA54" s="53"/>
-      <c r="AB54" s="53"/>
-      <c r="AC54" s="53"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
+      <c r="AB54" s="8"/>
+      <c r="AC54" s="8"/>
+      <c r="AD54" s="8"/>
+      <c r="AE54" s="8"/>
+      <c r="AF54" s="8"/>
+      <c r="AG54" s="8"/>
+      <c r="AH54" s="8"/>
+      <c r="AI54" s="8"/>
+      <c r="AJ54" s="8"/>
+      <c r="AK54" s="8"/>
+      <c r="AL54" s="8"/>
+      <c r="AM54" s="8"/>
+      <c r="AN54" s="8"/>
+      <c r="AO54" s="8"/>
+      <c r="AP54" s="8"/>
+      <c r="AQ54" s="8"/>
+      <c r="AR54" s="8"/>
+      <c r="AS54" s="8"/>
+      <c r="AT54" s="8"/>
+      <c r="AU54" s="8"/>
+      <c r="AV54" s="8"/>
+      <c r="AW54" s="8"/>
+      <c r="AX54" s="8"/>
+      <c r="AY54" s="8"/>
+      <c r="AZ54" s="8"/>
+      <c r="BA54" s="8"/>
+      <c r="BB54" s="8"/>
+      <c r="BC54" s="8"/>
+      <c r="BD54" s="8"/>
+      <c r="BE54" s="8"/>
+      <c r="BF54" s="8"/>
+      <c r="BG54" s="8"/>
+      <c r="BH54" s="8"/>
+      <c r="BI54" s="8"/>
+      <c r="BJ54" s="8"/>
+      <c r="BK54" s="8"/>
+      <c r="BL54" s="8"/>
+      <c r="BM54" s="8"/>
+      <c r="BN54" s="8"/>
+      <c r="BO54" s="8"/>
+      <c r="BP54" s="8"/>
+      <c r="BQ54" s="8"/>
+      <c r="BR54" s="8"/>
+      <c r="BS54" s="8"/>
+      <c r="BT54" s="8"/>
+      <c r="BU54" s="8"/>
+      <c r="BV54" s="8"/>
+      <c r="BW54" s="8"/>
+      <c r="BX54" s="8"/>
+      <c r="BY54" s="8"/>
+      <c r="BZ54" s="8"/>
+      <c r="CA54" s="8"/>
+      <c r="CB54" s="8"/>
+      <c r="CC54" s="8"/>
+      <c r="CD54" s="8"/>
+      <c r="CE54" s="8"/>
+      <c r="CF54" s="8"/>
+      <c r="CG54" s="8"/>
+      <c r="CH54" s="8"/>
+      <c r="CI54" s="8"/>
+      <c r="CJ54" s="8"/>
+      <c r="CK54" s="8"/>
+      <c r="CL54" s="8"/>
       <c r="DM54" s="50"/>
     </row>
     <row r="55" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
@@ -8180,7 +8268,7 @@
       <c r="AC68" s="53"/>
       <c r="DM68" s="50"/>
     </row>
-    <row r="69" spans="2:117" s="49" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:117" s="49" customFormat="1" ht="16.2" x14ac:dyDescent="0.25">
       <c r="B69" s="51"/>
       <c r="C69" s="52"/>
       <c r="D69" s="59"/>
@@ -8211,9 +8299,48 @@
       <c r="AC69" s="53"/>
       <c r="DM69" s="50"/>
     </row>
+    <row r="70" spans="2:117" s="49" customFormat="1" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="51"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="53"/>
+      <c r="F70" s="53"/>
+      <c r="G70" s="53"/>
+      <c r="H70" s="53"/>
+      <c r="I70" s="53"/>
+      <c r="J70" s="53"/>
+      <c r="K70" s="53"/>
+      <c r="L70" s="53"/>
+      <c r="M70" s="53"/>
+      <c r="N70" s="53"/>
+      <c r="O70" s="53"/>
+      <c r="P70" s="53"/>
+      <c r="Q70" s="53"/>
+      <c r="R70" s="53"/>
+      <c r="S70" s="53"/>
+      <c r="T70" s="53"/>
+      <c r="U70" s="53"/>
+      <c r="V70" s="53"/>
+      <c r="W70" s="53"/>
+      <c r="X70" s="53"/>
+      <c r="Y70" s="53"/>
+      <c r="Z70" s="53"/>
+      <c r="AA70" s="53"/>
+      <c r="AB70" s="53"/>
+      <c r="AC70" s="53"/>
+      <c r="DM70" s="50"/>
+    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8225,23 +8352,15 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">
-    <cfRule type="expression" dxfId="28" priority="296">
+    <cfRule type="expression" dxfId="31" priority="300">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11 I21:I50">
-    <cfRule type="dataBar" priority="177">
+  <conditionalFormatting sqref="I10:I11 I21:I51">
+    <cfRule type="dataBar" priority="181">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8254,19 +8373,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H27:H31 H14:H24 H34:H50">
-    <cfRule type="cellIs" dxfId="27" priority="173" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H27:H31 H14:H24 H34:H36 H38:H51">
+    <cfRule type="cellIs" dxfId="30" priority="177" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="174" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="178" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="175" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="179" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I12">
-    <cfRule type="dataBar" priority="153">
+    <cfRule type="dataBar" priority="157">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8280,37 +8399,37 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="24" priority="150" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="154" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="151" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="155" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="152" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="156" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB53">
-    <cfRule type="expression" dxfId="21" priority="297" stopIfTrue="1">
+  <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB54">
+    <cfRule type="expression" dxfId="24" priority="301" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="298" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="302" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="19" priority="126" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="130" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="127" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="131" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="128" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="132" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="dataBar" priority="125">
+    <cfRule type="dataBar" priority="129">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8324,72 +8443,72 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="16" priority="122" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="126" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="123" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="127" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="124" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="128" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS11:BW12">
-    <cfRule type="expression" dxfId="13" priority="68" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="72" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BS$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BS$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="69" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="73" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BS$8,$F11&gt;=BS$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN11:BR12">
-    <cfRule type="expression" dxfId="11" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="59" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BN$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BN$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="56" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="60" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BN$8,$F11&gt;=BN$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H38">
-    <cfRule type="cellIs" dxfId="9" priority="29" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="12" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="6" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CC11:CG53">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+  <conditionalFormatting sqref="CC11:CG54">
+    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CC$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CC$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CC$8,$F11&gt;=CC$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="CH11:CL53">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="CH11:CL54">
+    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CH$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CH$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CH$8,$F11&gt;=CH$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I14:I20">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8397,13 +8516,24 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{096D8222-718B-44D1-946C-05B97ED1DAA1}</x14:id>
+          <x14:id>{BDDA851A-956B-4D6A-A1C2-E46307358956}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H32 H12:H25 H38:H41 H43:H50 H34:H36" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H27:H32 H12:H25 H39:H42 H44:H51 H34:H37" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8427,7 +8557,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I11 I21:I50</xm:sqref>
+          <xm:sqref>I10:I11 I21:I51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{D61FC825-F82B-4D9E-ADC8-28E81302A8C5}">
@@ -8460,7 +8590,7 @@
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{096D8222-718B-44D1-946C-05B97ED1DAA1}">
+          <x14:cfRule type="dataBar" id="{BDDA851A-956B-4D6A-A1C2-E46307358956}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D482D5B7-392D-40C8-B331-7634AD4CE6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E236F-D19F-4A7E-9B09-6B0F65578183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="B1:DM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -4985,7 +4985,7 @@
       <c r="H26" s="36"/>
       <c r="I26" s="40">
         <f>AVERAGE(I27:I32)</f>
-        <v>0.73333333333333339</v>
+        <v>0.9</v>
       </c>
       <c r="J26" s="18"/>
       <c r="K26" s="8"/>
@@ -5491,7 +5491,7 @@
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="41">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="J31" s="18"/>
       <c r="K31" s="8"/>
@@ -5589,7 +5589,7 @@
       </c>
       <c r="H32" s="37"/>
       <c r="I32" s="41">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J32" s="18"/>
       <c r="K32" s="8"/>
@@ -5694,7 +5694,7 @@
       <c r="H33" s="36"/>
       <c r="I33" s="40">
         <f>AVERAGE(I34:I37)</f>
-        <v>0.25</v>
+        <v>0.92500000000000004</v>
       </c>
       <c r="J33" s="18"/>
       <c r="K33" s="8"/>
@@ -5891,7 +5891,7 @@
       <c r="G35" s="63"/>
       <c r="H35" s="37"/>
       <c r="I35" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="18"/>
       <c r="K35" s="8"/>
@@ -5986,7 +5986,7 @@
       <c r="G36" s="63"/>
       <c r="H36" s="37"/>
       <c r="I36" s="41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" s="18"/>
       <c r="K36" s="8"/>
@@ -6084,7 +6084,7 @@
       </c>
       <c r="H37" s="37"/>
       <c r="I37" s="41">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="J37" s="18"/>
       <c r="K37" s="8"/>
@@ -6695,7 +6695,7 @@
       <c r="H43" s="36"/>
       <c r="I43" s="40">
         <f>AVERAGE(I44:I46)</f>
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="J43" s="18"/>
       <c r="K43" s="8"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="8"/>
@@ -7098,7 +7098,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="40">
         <f>AVERAGE(I48:I50)</f>
-        <v>0</v>
+        <v>0.13333333333333333</v>
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="75"/>
@@ -7193,7 +7193,7 @@
       <c r="G48" s="84"/>
       <c r="H48" s="81"/>
       <c r="I48" s="82">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="J48" s="77"/>
       <c r="K48" s="75"/>
@@ -8333,14 +8333,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8352,6 +8344,14 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C1E236F-D19F-4A7E-9B09-6B0F65578183}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E6969-309D-4788-858C-7D62BAFED112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="B1:DM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I49" sqref="I49"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3515,7 +3515,7 @@
       <c r="H11" s="36"/>
       <c r="I11" s="40">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.46785714285714286</v>
+        <v>0.61428571428571421</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3616,7 +3616,7 @@
         <v>5 day(s)</v>
       </c>
       <c r="H12" s="37"/>
-      <c r="I12" s="41">
+      <c r="I12" s="82">
         <v>1</v>
       </c>
       <c r="J12" s="18"/>
@@ -3718,7 +3718,7 @@
         <v>5 day(s)</v>
       </c>
       <c r="H13" s="37"/>
-      <c r="I13" s="41">
+      <c r="I13" s="82">
         <v>1</v>
       </c>
       <c r="J13" s="18"/>
@@ -3821,7 +3821,7 @@
       </c>
       <c r="H14" s="37"/>
       <c r="I14" s="82">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="J14" s="18"/>
       <c r="K14" s="8"/>
@@ -3923,7 +3923,7 @@
       </c>
       <c r="H15" s="37"/>
       <c r="I15" s="82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J15" s="18"/>
       <c r="K15" s="8"/>
@@ -4025,7 +4025,7 @@
       </c>
       <c r="H16" s="37"/>
       <c r="I16" s="82">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="J16" s="18"/>
       <c r="K16" s="8"/>
@@ -4120,7 +4120,7 @@
       <c r="G17" s="63"/>
       <c r="H17" s="37"/>
       <c r="I17" s="82">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4215,7 +4215,7 @@
       <c r="G18" s="63"/>
       <c r="H18" s="37"/>
       <c r="I18" s="82">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="J18" s="18"/>
       <c r="K18" s="8"/>
@@ -4499,8 +4499,8 @@
       <c r="F21" s="6"/>
       <c r="G21" s="66"/>
       <c r="H21" s="37"/>
-      <c r="I21" s="41">
-        <v>0</v>
+      <c r="I21" s="82">
+        <v>0.4</v>
       </c>
       <c r="J21" s="18"/>
       <c r="K21" s="8"/>
@@ -4594,7 +4594,7 @@
       <c r="F22" s="6"/>
       <c r="G22" s="66"/>
       <c r="H22" s="37"/>
-      <c r="I22" s="41">
+      <c r="I22" s="82">
         <v>0</v>
       </c>
       <c r="J22" s="18"/>
@@ -4689,8 +4689,8 @@
       <c r="F23" s="6"/>
       <c r="G23" s="66"/>
       <c r="H23" s="37"/>
-      <c r="I23" s="41">
-        <v>0</v>
+      <c r="I23" s="82">
+        <v>0.4</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -4784,8 +4784,8 @@
       <c r="F24" s="6"/>
       <c r="G24" s="66"/>
       <c r="H24" s="37"/>
-      <c r="I24" s="41">
-        <v>0</v>
+      <c r="I24" s="82">
+        <v>0.2</v>
       </c>
       <c r="J24" s="18"/>
       <c r="K24" s="8"/>
@@ -4879,7 +4879,7 @@
       <c r="F25" s="6"/>
       <c r="G25" s="63"/>
       <c r="H25" s="37"/>
-      <c r="I25" s="41">
+      <c r="I25" s="82">
         <v>0</v>
       </c>
       <c r="J25" s="18"/>
@@ -8333,6 +8333,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8344,23 +8352,15 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">
-    <cfRule type="expression" dxfId="31" priority="300">
+    <cfRule type="expression" dxfId="31" priority="303">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I11 I21:I51">
-    <cfRule type="dataBar" priority="181">
+  <conditionalFormatting sqref="I10:I11 I26:I51">
+    <cfRule type="dataBar" priority="184">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8374,18 +8374,124 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H31 H14:H24 H34:H36 H38:H51">
-    <cfRule type="cellIs" dxfId="30" priority="177" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="180" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="178" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="181" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="179" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="182" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I12">
-    <cfRule type="dataBar" priority="157">
+  <conditionalFormatting sqref="H12">
+    <cfRule type="cellIs" dxfId="27" priority="157" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="158" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="159" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB54">
+    <cfRule type="expression" dxfId="24" priority="304" stopIfTrue="1">
+      <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=K$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="23" priority="305" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H32">
+    <cfRule type="cellIs" dxfId="22" priority="133" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="134" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="135" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="19" priority="129" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="130" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="131" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BS11:BW12">
+    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
+      <formula>AND($I11&gt;5%, $E11&lt;=BS$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BS$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="76" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BS$8,$F11&gt;=BS$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BN11:BR12">
+    <cfRule type="expression" dxfId="14" priority="62" stopIfTrue="1">
+      <formula>AND($I11&gt;5%, $E11&lt;=BN$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BN$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="13" priority="63" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BN$8,$F11&gt;=BN$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39">
+    <cfRule type="cellIs" dxfId="12" priority="36" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H25">
+    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CC11:CG54">
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND($I11&gt;5%, $E11&lt;=CC$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CC$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CC$8,$F11&gt;=CC$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="CH11:CL54">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>AND($I11&gt;5%, $E11&lt;=CH$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CH$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CH$8,$F11&gt;=CH$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H37">
+    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I14:I25">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8393,43 +8499,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{D61FC825-F82B-4D9E-ADC8-28E81302A8C5}</x14:id>
+          <x14:id>{316D7A20-2F93-4046-86C8-748B61BAF0EB}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="27" priority="154" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="155" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="156" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB54">
-    <cfRule type="expression" dxfId="24" priority="301" stopIfTrue="1">
-      <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=K$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="23" priority="302" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="22" priority="130" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="131" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="132" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="dataBar" priority="129">
+  <conditionalFormatting sqref="I12">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8437,78 +8513,13 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{C3E75262-7C2F-406A-93B5-46104681D1CD}</x14:id>
+          <x14:id>{B3446028-1B2C-4FAC-BA90-DB09FE9820F2}</x14:id>
         </ext>
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="19" priority="126" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="127" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="128" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BS11:BW12">
-    <cfRule type="expression" dxfId="16" priority="72" stopIfTrue="1">
-      <formula>AND($I11&gt;5%, $E11&lt;=BS$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BS$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="73" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BS$8,$F11&gt;=BS$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BN11:BR12">
-    <cfRule type="expression" dxfId="14" priority="59" stopIfTrue="1">
-      <formula>AND($I11&gt;5%, $E11&lt;=BN$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BN$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="13" priority="60" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BN$8,$F11&gt;=BN$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="12" priority="33" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="34" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="35" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="9" priority="10" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="12" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CC11:CG54">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>AND($I11&gt;5%, $E11&lt;=CC$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CC$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="9" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CC$8,$F11&gt;=CC$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="CH11:CL54">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
-      <formula>AND($I11&gt;5%, $E11&lt;=CH$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CH$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CH$8,$F11&gt;=CH$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14:I20">
-    <cfRule type="dataBar" priority="4">
+  <conditionalFormatting sqref="I13">
+    <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8516,20 +8527,9 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BDDA851A-956B-4D6A-A1C2-E46307358956}</x14:id>
+          <x14:id>{1F70E70F-5AD8-4E84-8EB2-0D09375BB95E}</x14:id>
         </ext>
       </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="2" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -8557,10 +8557,25 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I11 I21:I51</xm:sqref>
+          <xm:sqref>I10:I11 I26:I51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{D61FC825-F82B-4D9E-ADC8-28E81302A8C5}">
+          <x14:cfRule type="dataBar" id="{316D7A20-2F93-4046-86C8-748B61BAF0EB}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I14:I25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B3446028-1B2C-4FAC-BA90-DB09FE9820F2}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8575,7 +8590,7 @@
           <xm:sqref>I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{C3E75262-7C2F-406A-93B5-46104681D1CD}">
+          <x14:cfRule type="dataBar" id="{1F70E70F-5AD8-4E84-8EB2-0D09375BB95E}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8589,21 +8604,6 @@
           </x14:cfRule>
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BDDA851A-956B-4D6A-A1C2-E46307358956}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I14:I20</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995E6969-309D-4788-858C-7D62BAFED112}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA16C0F-0104-4EB8-BE64-EDF0E363A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="B1:DM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R45" sqref="R45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -6695,7 +6695,7 @@
       <c r="H43" s="36"/>
       <c r="I43" s="40">
         <f>AVERAGE(I44:I46)</f>
-        <v>0.5</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="J43" s="18"/>
       <c r="K43" s="8"/>
@@ -6895,7 +6895,7 @@
       </c>
       <c r="H45" s="37"/>
       <c r="I45" s="41">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="J45" s="19"/>
       <c r="K45" s="8"/>
@@ -7098,7 +7098,7 @@
       <c r="H47" s="80"/>
       <c r="I47" s="40">
         <f>AVERAGE(I48:I50)</f>
-        <v>0.13333333333333333</v>
+        <v>0.3</v>
       </c>
       <c r="J47" s="77"/>
       <c r="K47" s="75"/>
@@ -7288,7 +7288,7 @@
       <c r="G49" s="84"/>
       <c r="H49" s="81"/>
       <c r="I49" s="82">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="J49" s="78"/>
       <c r="K49" s="76"/>
@@ -8333,14 +8333,6 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8352,6 +8344,14 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">

--- a/ETP Testing POC Plan_Duong.xlsx
+++ b/ETP Testing POC Plan_Duong.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26529"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA16C0F-0104-4EB8-BE64-EDF0E363A18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E2591E-3962-479A-AF21-4536F58BBDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="693" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2098,8 +2098,8 @@
   </sheetPr>
   <dimension ref="B1:DM70"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R45" sqref="R45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="13.2" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3506,16 +3506,16 @@
       </c>
       <c r="F11" s="24">
         <f>IF(MAX(F12:F25)&gt;0,MAX(F12:F25),"")</f>
-        <v>45107</v>
+        <v>45128</v>
       </c>
       <c r="G11" s="36" t="str">
         <f>IF(OR(E11="",F11=""),"",NETWORKDAYS(E11,F11)&amp; " day(s)")</f>
-        <v>25 day(s)</v>
+        <v>40 day(s)</v>
       </c>
       <c r="H11" s="36"/>
       <c r="I11" s="40">
         <f>AVERAGE(I12:I25)</f>
-        <v>0.61428571428571421</v>
+        <v>0.65</v>
       </c>
       <c r="J11" s="17"/>
       <c r="K11" s="25"/>
@@ -3816,7 +3816,7 @@
         <v>45093</v>
       </c>
       <c r="G14" s="63" t="str">
-        <f t="shared" ref="G14:G16" si="45">IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
+        <f t="shared" ref="G14:G20" si="45">IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H14" s="37"/>
@@ -4115,12 +4115,19 @@
         <v>20</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="63"/>
+      <c r="E17" s="6">
+        <v>45110</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45114</v>
+      </c>
+      <c r="G17" s="84" t="str">
+        <f t="shared" si="45"/>
+        <v>5 day(s)</v>
+      </c>
       <c r="H17" s="37"/>
       <c r="I17" s="82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J17" s="18"/>
       <c r="K17" s="8"/>
@@ -4210,9 +4217,16 @@
         <v>15</v>
       </c>
       <c r="D18" s="8"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="63"/>
+      <c r="E18" s="6">
+        <v>45117</v>
+      </c>
+      <c r="F18" s="6">
+        <v>45121</v>
+      </c>
+      <c r="G18" s="84" t="str">
+        <f t="shared" si="45"/>
+        <v>5 day(s)</v>
+      </c>
       <c r="H18" s="37"/>
       <c r="I18" s="82">
         <v>1</v>
@@ -4307,7 +4321,10 @@
       <c r="D19" s="8"/>
       <c r="E19" s="6"/>
       <c r="F19" s="6"/>
-      <c r="G19" s="63"/>
+      <c r="G19" s="84" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
       <c r="H19" s="37"/>
       <c r="I19" s="82">
         <v>0</v>
@@ -4400,12 +4417,19 @@
         <v>16</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="63"/>
+      <c r="E20" s="6">
+        <v>45124</v>
+      </c>
+      <c r="F20" s="6">
+        <v>45128</v>
+      </c>
+      <c r="G20" s="84" t="str">
+        <f t="shared" si="45"/>
+        <v>5 day(s)</v>
+      </c>
       <c r="H20" s="37"/>
       <c r="I20" s="82">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J20" s="18"/>
       <c r="K20" s="8"/>
@@ -4690,7 +4714,7 @@
       <c r="G23" s="66"/>
       <c r="H23" s="37"/>
       <c r="I23" s="82">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="J23" s="18"/>
       <c r="K23" s="8"/>
@@ -4976,11 +5000,11 @@
       </c>
       <c r="F26" s="24">
         <f>IF(MAX(F27:F32)&gt;0,MAX(F27:F32),"")</f>
-        <v>45107</v>
+        <v>45114</v>
       </c>
       <c r="G26" s="36" t="str">
         <f>IF(OR(E26="",F26=""),"",NETWORKDAYS(E26,F26)&amp; " day(s)")</f>
-        <v>25 day(s)</v>
+        <v>30 day(s)</v>
       </c>
       <c r="H26" s="36"/>
       <c r="I26" s="40">
@@ -5483,11 +5507,15 @@
         <v>28</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="6"/>
-      <c r="F31" s="6"/>
-      <c r="G31" s="63" t="str">
+      <c r="E31" s="6">
+        <v>45110</v>
+      </c>
+      <c r="F31" s="6">
+        <v>45114</v>
+      </c>
+      <c r="G31" s="84" t="str">
         <f t="shared" si="47"/>
-        <v/>
+        <v>5 day(s)</v>
       </c>
       <c r="H31" s="37"/>
       <c r="I31" s="41">
@@ -5681,15 +5709,15 @@
       <c r="D33" s="58"/>
       <c r="E33" s="24">
         <f>IF(MIN(E34:E37)&gt;0,MIN(E34:E37),"")</f>
-        <v>45080</v>
+        <v>45117</v>
       </c>
       <c r="F33" s="24">
         <f>IF(MAX(F34:F36)&gt;0,MAX(F34:F37),"")</f>
-        <v>45086</v>
+        <v>45128</v>
       </c>
       <c r="G33" s="36" t="str">
         <f>IF(OR(E33="",F33=""),"",NETWORKDAYS(E33,F33)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
+        <v>10 day(s)</v>
       </c>
       <c r="H33" s="36"/>
       <c r="I33" s="40">
@@ -5785,13 +5813,13 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="6">
-        <v>45080</v>
+        <v>45117</v>
       </c>
       <c r="F34" s="6">
-        <v>45086</v>
-      </c>
-      <c r="G34" s="63" t="str">
-        <f t="shared" ref="G34" si="48">IF(OR(E34=0,F34=0),"",NETWORKDAYS(E34,F34)&amp; " day(s)")</f>
+        <v>45121</v>
+      </c>
+      <c r="G34" s="84" t="str">
+        <f t="shared" ref="G34:G35" si="48">IF(OR(E34=0,F34=0),"",NETWORKDAYS(E34,F34)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H34" s="37"/>
@@ -5886,9 +5914,16 @@
         <v>46</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="63"/>
+      <c r="E35" s="6">
+        <v>45124</v>
+      </c>
+      <c r="F35" s="6">
+        <v>45128</v>
+      </c>
+      <c r="G35" s="84" t="str">
+        <f t="shared" si="48"/>
+        <v>5 day(s)</v>
+      </c>
       <c r="H35" s="37"/>
       <c r="I35" s="41">
         <v>1</v>
@@ -8333,6 +8368,14 @@
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="19">
+    <mergeCell ref="CC5:CG7"/>
+    <mergeCell ref="CH5:CL7"/>
+    <mergeCell ref="BN5:BR7"/>
+    <mergeCell ref="AT5:AX7"/>
+    <mergeCell ref="BD5:BH7"/>
+    <mergeCell ref="BI5:BM7"/>
+    <mergeCell ref="BX5:CB7"/>
+    <mergeCell ref="AY5:BC7"/>
     <mergeCell ref="AO5:AS7"/>
     <mergeCell ref="BS5:BW7"/>
     <mergeCell ref="C3:I4"/>
@@ -8344,23 +8387,15 @@
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="CC5:CG7"/>
-    <mergeCell ref="CH5:CL7"/>
-    <mergeCell ref="BN5:BR7"/>
-    <mergeCell ref="AT5:AX7"/>
-    <mergeCell ref="BD5:BH7"/>
-    <mergeCell ref="BI5:BM7"/>
-    <mergeCell ref="BX5:CB7"/>
-    <mergeCell ref="AY5:BC7"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="K8:CL8">
-    <cfRule type="expression" dxfId="31" priority="303">
+    <cfRule type="expression" dxfId="31" priority="306">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:I11 I26:I51">
-    <cfRule type="dataBar" priority="184">
+    <cfRule type="dataBar" priority="187">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8374,119 +8409,119 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27:H31 H14:H24 H34:H36 H38:H51">
-    <cfRule type="cellIs" dxfId="30" priority="180" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="183" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="181" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="184" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="182" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="185" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="cellIs" dxfId="27" priority="157" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="160" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="158" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="161" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="159" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="162" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:BM12 BX11:CB12 K13:CB54">
-    <cfRule type="expression" dxfId="24" priority="304" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="307" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="305" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="308" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="cellIs" dxfId="22" priority="133" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="136" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="134" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="137" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="135" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="138" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="19" priority="129" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="132" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="130" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="133" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="131" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="134" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BS11:BW12">
-    <cfRule type="expression" dxfId="16" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="78" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BS$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BS$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="76" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="79" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BS$8,$F11&gt;=BS$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN11:BR12">
-    <cfRule type="expression" dxfId="14" priority="62" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="65" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=BN$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=BN$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="66" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=BN$8,$F11&gt;=BN$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="cellIs" dxfId="12" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="cellIs" dxfId="9" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="17" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="18" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CC11:CG54">
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="14" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CC$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CC$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="15" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CC$8,$F11&gt;=CC$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="CH11:CL54">
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="12" stopIfTrue="1">
       <formula>AND($I11&gt;5%, $E11&lt;=CH$8,ROUNDDOWN(($F11-$E11)*$I11,0)+$E11&gt;=CH$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="13" stopIfTrue="1">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=CH$8,$F11&gt;=CH$8)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="cellIs" dxfId="2" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8499,7 +8534,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{316D7A20-2F93-4046-86C8-748B61BAF0EB}</x14:id>
+          <x14:id>{EB2DB741-5E16-4DFC-BB35-445B825F3101}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8513,7 +8548,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{B3446028-1B2C-4FAC-BA90-DB09FE9820F2}</x14:id>
+          <x14:id>{9919DF11-5D83-48F9-86E8-F468A8E3632C}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8527,7 +8562,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1F70E70F-5AD8-4E84-8EB2-0D09375BB95E}</x14:id>
+          <x14:id>{B9478A38-D6FA-473E-80B5-DC00EDD0BE37}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -8560,7 +8595,7 @@
           <xm:sqref>I10:I11 I26:I51</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{316D7A20-2F93-4046-86C8-748B61BAF0EB}">
+          <x14:cfRule type="dataBar" id="{EB2DB741-5E16-4DFC-BB35-445B825F3101}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8575,7 +8610,7 @@
           <xm:sqref>I14:I25</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{B3446028-1B2C-4FAC-BA90-DB09FE9820F2}">
+          <x14:cfRule type="dataBar" id="{9919DF11-5D83-48F9-86E8-F468A8E3632C}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
@@ -8590,7 +8625,7 @@
           <xm:sqref>I12</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{1F70E70F-5AD8-4E84-8EB2-0D09375BB95E}">
+          <x14:cfRule type="dataBar" id="{B9478A38-D6FA-473E-80B5-DC00EDD0BE37}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>
